--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail0 Features.xlsx
@@ -5865,7 +5865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,29 +5876,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5919,115 +5917,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6044,72 +6032,66 @@
         <v>1.022742087677476e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.380118676520916</v>
+        <v>7.188108787213303e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.72164727436868</v>
+        <v>5.309062062038557e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.188108787213303e-06</v>
+        <v>-0.09521038505211729</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.309062062038557e-06</v>
+        <v>0.3584314763692739</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09521038505211729</v>
+        <v>0.1371485822387075</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3584314763692739</v>
+        <v>1.612206107762808</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1371485822387075</v>
+        <v>1.50812392197382</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.527453874928153</v>
+        <v>5.133455968167548</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.50812392197382</v>
+        <v>3.989807174272343e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.133455968167548</v>
+        <v>13214773.1990776</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.989807174272343e-14</v>
+        <v>8.066917620491924e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>13214773.1990776</v>
+        <v>6.967409473039013</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.066917620491924e-06</v>
+        <v>0.0001251966001690155</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.967409473039013</v>
+        <v>6.563569543837795</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001251966001690155</v>
+        <v>2.485350192215295</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.563569543837795</v>
+        <v>0.005393525267398475</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.485350192215295</v>
+        <v>3.294850924651703</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005393525267398475</v>
+        <v>0.9428498860271145</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.294850924651703</v>
+        <v>1.874780846972014</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9428498860271145</v>
+        <v>24</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.874780846972014</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2155901569979479</v>
       </c>
     </row>
@@ -6124,72 +6106,66 @@
         <v>7.518361423272532e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.679076107531438</v>
+        <v>5.184910870977772e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10.15373801383642</v>
+        <v>5.229433643413902e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.184910870977772e-06</v>
+        <v>-0.08534247966665474</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.229433643413902e-06</v>
+        <v>0.3568747564003251</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08534247966665474</v>
+        <v>0.1343126201627753</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3568747564003251</v>
+        <v>1.576967874198035</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1343126201627753</v>
+        <v>1.452597899079189</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.490557745297657</v>
+        <v>4.204841805005609</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.452597899079189</v>
+        <v>5.946648473938934e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.204841805005609</v>
+        <v>9144233.152079983</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.946648473938934e-14</v>
+        <v>1.146738569278582e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9144233.152079983</v>
+        <v>4.972409050861661</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.146738569278582e-05</v>
+        <v>0.0001238705552931489</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.972409050861661</v>
+        <v>10.34396779486853</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001238705552931489</v>
+        <v>1.757729537151591</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.34396779486853</v>
+        <v>0.01325386076592497</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.757729537151591</v>
+        <v>3.258173573983596</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01325386076592497</v>
+        <v>0.9406743863033147</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.258173573983596</v>
+        <v>1.829825153241838</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9406743863033147</v>
+        <v>24</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.829825153241838</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2230690704613285</v>
       </c>
     </row>
@@ -6204,72 +6180,66 @@
         <v>5.810290431077778e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.624800528058896</v>
+        <v>3.728401179162595e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.910109550769808</v>
+        <v>5.17779227426781e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.728401179162595e-06</v>
+        <v>-0.06989592596116084</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.17779227426781e-06</v>
+        <v>0.338823262340636</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06989592596116084</v>
+        <v>0.1193916884660478</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.338823262340636</v>
+        <v>1.552617327506945</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1193916884660478</v>
+        <v>1.432044810571578</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.462412100455365</v>
+        <v>4.162999209520171</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.432044810571578</v>
+        <v>6.066789585530547e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.162999209520171</v>
+        <v>9178618.975322528</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.066789585530547e-14</v>
+        <v>1.141231859945909e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9178618.975322528</v>
+        <v>5.111091030690639</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.141231859945909e-05</v>
+        <v>0.0001062580368391989</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.111091030690639</v>
+        <v>9.633481359919688</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001062580368391989</v>
+        <v>1.464459282097848</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.633481359919688</v>
+        <v>0.009861166931170061</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.464459282097848</v>
+        <v>3.124573886515549</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009861166931170061</v>
+        <v>0.9382869936218486</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.124573886515549</v>
+        <v>1.876737861153262</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9382869936218486</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.876737861153262</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2304982330702327</v>
       </c>
     </row>
@@ -6284,72 +6254,66 @@
         <v>4.866724654665341e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6308549047964529</v>
+        <v>2.667557049672501e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5832168958660624</v>
+        <v>5.146160693581278e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.667557049672501e-06</v>
+        <v>-0.04873307554998694</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.146160693581278e-06</v>
+        <v>0.2971961947842375</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04873307554998694</v>
+        <v>0.09047805925422174</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2971961947842375</v>
+        <v>1.542051293455849</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09047805925422174</v>
+        <v>1.425612091513486</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.450791184277168</v>
+        <v>4.172255324529985</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.425612091513486</v>
+        <v>6.039901196311423e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.172255324529985</v>
+        <v>9123173.230174432</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.039901196311423e-14</v>
+        <v>1.138109635884389e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>9123173.230174432</v>
+        <v>5.027148066608992</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.138109635884389e-05</v>
+        <v>0.0001062717647596172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.027148066608992</v>
+        <v>7.345543189001831</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001062717647596172</v>
+        <v>1.263134978211617</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.345543189001831</v>
+        <v>0.005734106115021302</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.263134978211617</v>
+        <v>3.096111175372883</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005734106115021302</v>
+        <v>0.9376755378419988</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.096111175372883</v>
+        <v>1.897183604325761</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9376755378419988</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.897183604325761</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2200143618319929</v>
       </c>
     </row>
@@ -6364,72 +6328,66 @@
         <v>4.444349098950337e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1259876421250254</v>
+        <v>1.89904652966928e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.088954074621252</v>
+        <v>5.128893560875395e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.89904652966928e-06</v>
+        <v>-0.0260778852392203</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.128893560875395e-06</v>
+        <v>0.2404632961368173</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0260778852392203</v>
+        <v>0.05836370315940886</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2404632961368173</v>
+        <v>1.544662088394283</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05836370315940886</v>
+        <v>1.440539018160153</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.453031914904618</v>
+        <v>4.155772622611543</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.440539018160153</v>
+        <v>6.087907344064081e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.155772622611543</v>
+        <v>9080464.6669378</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.087907344064081e-14</v>
+        <v>1.144648518511712e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>9080464.6669378</v>
+        <v>5.019774172687368</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.144648518511712e-05</v>
+        <v>0.0001135169142939435</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.019774172687368</v>
+        <v>6.800506117346195</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001135169142939435</v>
+        <v>1.273001589574902</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.800506117346195</v>
+        <v>0.00524980350518983</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.273001589574902</v>
+        <v>3.110624716041217</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00524980350518983</v>
+        <v>0.9390482279115678</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.110624716041217</v>
+        <v>1.870402029674429</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9390482279115678</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.870402029674429</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2076535069636971</v>
       </c>
     </row>
@@ -6444,72 +6402,66 @@
         <v>4.315150400839973e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.01005885552502414</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.325793046394707</v>
+        <v>5.12192729728712e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>-0.006716937146866902</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.12192729728712e-06</v>
+        <v>0.1857895130873608</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.006716937146866902</v>
+        <v>0.03448775333409929</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1857895130873608</v>
+        <v>1.549260272433524</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03448775333409929</v>
+        <v>1.460271692710102</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.457764210043372</v>
+        <v>4.110310148203626</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.460271692710102</v>
+        <v>6.223323869604882e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.110310148203626</v>
+        <v>8892065.694782224</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.223323869604882e-14</v>
+        <v>1.169773607338719e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8892065.694782224</v>
+        <v>4.920709515208512</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.169773607338719e-05</v>
+        <v>0.0001195409536714491</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.920709515208512</v>
+        <v>6.721223096558994</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001195409536714491</v>
+        <v>1.389241076432153</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.721223096558994</v>
+        <v>0.005400243445240904</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.389241076432153</v>
+        <v>3.117490699772019</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005400243445240904</v>
+        <v>0.9376118234470705</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.117490699772019</v>
+        <v>1.894373978356928</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9376118234470705</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.894373978356928</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1953316356389912</v>
       </c>
     </row>
@@ -6524,72 +6476,66 @@
         <v>4.317499966187499e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.007317182528338701</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.332969750276298</v>
+        <v>5.122341471849834e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.007708143838596624</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.122341471849834e-06</v>
+        <v>0.1437808000139777</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.007708143838596624</v>
+        <v>0.02069576559320742</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1437808000139777</v>
+        <v>1.559456267502302</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02069576559320742</v>
+        <v>1.434957567961264</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.469135268206393</v>
+        <v>4.056890167513507</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.434957567961264</v>
+        <v>6.388296856201913e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.056890167513507</v>
+        <v>8738321.736251874</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.388296856201913e-14</v>
+        <v>1.196847079938964e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>8738321.736251874</v>
+        <v>4.877992755278743</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.196847079938964e-05</v>
+        <v>0.0001212849889404241</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.877992755278743</v>
+        <v>7.312645827377645</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001212849889404241</v>
+        <v>1.323240907297951</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.312645827377645</v>
+        <v>0.006485689192051866</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.323240907297951</v>
+        <v>3.100220778730662</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006485689192051866</v>
+        <v>0.9383198522377983</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.100220778730662</v>
+        <v>1.900305680516068</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9383198522377983</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.900305680516068</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.18642798792673</v>
       </c>
     </row>
@@ -6604,72 +6550,66 @@
         <v>4.363718952991038e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.003206245523732277</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.366822972796146</v>
+        <v>5.128020314785486e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.01764798941654306</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.128020314785486e-06</v>
+        <v>0.116753239606794</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01764798941654306</v>
+        <v>0.01392715229460875</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.116753239606794</v>
+        <v>1.538051844170569</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01392715229460875</v>
+        <v>1.414729041366447</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.446087259656436</v>
+        <v>4.066998260846098</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.414729041366447</v>
+        <v>6.356581447723949e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.066998260846098</v>
+        <v>8877496.487576092</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.356581447723949e-14</v>
+        <v>1.169836956068503e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8877496.487576092</v>
+        <v>5.009618272077983</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.169836956068503e-05</v>
+        <v>0.0001193644760161002</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.009618272077983</v>
+        <v>9.373388903365258</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001193644760161002</v>
+        <v>1.201403740400492</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.373388903365258</v>
+        <v>0.01048741294019853</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.201403740400492</v>
+        <v>2.988909687349131</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01048741294019853</v>
+        <v>0.9364887443657464</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.988909687349131</v>
+        <v>1.867787051124122</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9364887443657464</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.867787051124122</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1914228241510939</v>
       </c>
     </row>
@@ -6684,72 +6624,66 @@
         <v>4.413990234507215e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03766180718388411</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.406725536759471</v>
+        <v>5.137190032337161e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.02347016558264031</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.137190032337161e-06</v>
+        <v>0.1023932822883601</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02347016558264031</v>
+        <v>0.01102845479477407</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1023932822883601</v>
+        <v>1.535818219651999</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01102845479477407</v>
+        <v>1.417219192894768</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.442713300418312</v>
+        <v>4.076565657111381</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.417219192894768</v>
+        <v>6.326779612808579e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.076565657111381</v>
+        <v>8991369.985432576</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.326779612808579e-14</v>
+        <v>1.15648080149735e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8991369.985432576</v>
+        <v>5.114868162339966</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.15648080149735e-05</v>
+        <v>0.0001157332690521335</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.114868162339966</v>
+        <v>9.042008073600437</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001157332690521335</v>
+        <v>1.222900524074329</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.042008073600437</v>
+        <v>0.009462110195523737</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.222900524074329</v>
+        <v>3.015955205661039</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009462110195523737</v>
+        <v>0.9387468126024846</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.015955205661039</v>
+        <v>1.87754741516476</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9387468126024846</v>
+        <v>11</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.87754741516476</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1954423384427204</v>
       </c>
     </row>
@@ -6764,72 +6698,66 @@
         <v>4.451484076783502e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.08866085690004981</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.430429403449623</v>
+        <v>5.148420965614138e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.02689937697379563</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.148420965614138e-06</v>
+        <v>0.09410298685716142</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02689937697379563</v>
+        <v>0.009574333429599909</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09410298685716142</v>
+        <v>1.540796777752313</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009574333429599909</v>
+        <v>1.406159473542011</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.444890584502986</v>
+        <v>4.163244562977567</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.406159473542011</v>
+        <v>6.06607453556589e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.163244562977567</v>
+        <v>9475240.577128179</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.06607453556589e-14</v>
+        <v>1.099634243845537e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9475240.577128179</v>
+        <v>5.44613287927192</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.099634243845537e-05</v>
+        <v>0.0001188910336341285</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.44613287927192</v>
+        <v>7.034553627822097</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001188910336341285</v>
+        <v>1.47671685117171</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.034553627822097</v>
+        <v>0.005883316229787933</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.47671685117171</v>
+        <v>3.166940174483865</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005883316229787933</v>
+        <v>0.9398606084375793</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.166940174483865</v>
+        <v>1.895596071463715</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9398606084375793</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.895596071463715</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1853734203409188</v>
       </c>
     </row>
@@ -6844,72 +6772,66 @@
         <v>4.469046268549931e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1498195479437406</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.430175065808804</v>
+        <v>5.161012330795512e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.02937333661142639</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.161012330795512e-06</v>
+        <v>0.08844330776714014</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02937333661142639</v>
+        <v>0.008681711724743543</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08844330776714014</v>
+        <v>1.542423750666191</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008681711724743543</v>
+        <v>1.425247611126092</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.44939558564252</v>
+        <v>4.309738947867954</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.425247611126092</v>
+        <v>5.660693756589804e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.309738947867954</v>
+        <v>10247524.57426644</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.660693756589804e-14</v>
+        <v>1.018543102963428e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>10247524.57426644</v>
+        <v>5.944394136355387</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.018543102963428e-05</v>
+        <v>0.0001229297885789292</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.944394136355387</v>
+        <v>6.912395465262377</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001229297885789292</v>
+        <v>1.380594959586134</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.912395465262377</v>
+        <v>0.005873734174656543</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.380594959586134</v>
+        <v>3.108325734589719</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005873734174656543</v>
+        <v>0.940419828615394</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.108325734589719</v>
+        <v>1.88864870757894</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.940419828615394</v>
+        <v>22</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.88864870757894</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1866708535679919</v>
       </c>
     </row>
@@ -6924,72 +6846,66 @@
         <v>4.46399351624988e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2160650129837069</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.404705692947848</v>
+        <v>5.174589166807705e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.03126749771304939</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.174589166807705e-06</v>
+        <v>0.08494051742554166</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03126749771304939</v>
+        <v>0.008190346454109008</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08494051742554166</v>
+        <v>1.558291366967562</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008190346454109008</v>
+        <v>1.494545411130441</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.468188763974386</v>
+        <v>4.341722018145623</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.494545411130441</v>
+        <v>5.577602517148139e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.341722018145623</v>
+        <v>10319685.25901448</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.577602517148139e-14</v>
+        <v>1.014485287748219e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>10319685.25901448</v>
+        <v>5.939918213525117</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.014485287748219e-05</v>
+        <v>0.0001329869460393915</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.939918213525117</v>
+        <v>8.081566880046635</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001329869460393915</v>
+        <v>1.294866167789374</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.081566880046635</v>
+        <v>0.008685606613814264</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.294866167789374</v>
+        <v>2.961677820513252</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008685606613814264</v>
+        <v>0.9400712514190668</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.961677820513252</v>
+        <v>1.871986440464074</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9400712514190668</v>
+        <v>21</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.871986440464074</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1813132058370628</v>
       </c>
     </row>
@@ -7004,72 +6920,66 @@
         <v>4.436237737860994e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2835063360211779</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.35646591978291</v>
+        <v>5.188853077481651e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.03270751574133</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.188853077481651e-06</v>
+        <v>0.08327317953173499</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03270751574133</v>
+        <v>0.008002769428185617</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08327317953173499</v>
+        <v>1.562086227128712</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008002769428185617</v>
+        <v>1.467801262984901</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.476301861340727</v>
+        <v>4.326949384701647</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.467801262984901</v>
+        <v>5.615752504117769e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.326949384701647</v>
+        <v>10192424.72501295</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.615752504117769e-14</v>
+        <v>1.026042514962905e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>10192424.72501295</v>
+        <v>5.833953790498485</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.026042514962905e-05</v>
+        <v>0.0001495820419372463</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.833953790498485</v>
+        <v>9.916161951915745</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001495820419372463</v>
+        <v>1.169779956813353</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.916161951915745</v>
+        <v>0.01470844225022982</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.169779956813353</v>
+        <v>2.747099011413492</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01470844225022982</v>
+        <v>0.9390512174092062</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.747099011413492</v>
+        <v>1.89434891319153</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9390512174092062</v>
+        <v>19</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.89434891319153</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1714790739183312</v>
       </c>
     </row>
@@ -7084,72 +6994,66 @@
         <v>4.386887494365979e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.34944247689442</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.289133365962605</v>
+        <v>5.203546486045255e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.03379769908419725</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.203546486045255e-06</v>
+        <v>0.08306540966982062</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03379769908419725</v>
+        <v>0.008041243594204885</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08306540966982062</v>
+        <v>1.575740047211103</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008041243594204885</v>
+        <v>1.38985099391207</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.493191087791762</v>
+        <v>4.409720820965807</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.38985099391207</v>
+        <v>5.406913216827192e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.409720820965807</v>
+        <v>10205080.39277645</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.406913216827192e-14</v>
+        <v>1.019206807219757e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>10205080.39277645</v>
+        <v>5.630957631873775</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.019206807219757e-05</v>
+        <v>0.0001740191388751383</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.630957631873775</v>
+        <v>11.35877122334743</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001740191388751383</v>
+        <v>1.105546018073994</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.35877122334743</v>
+        <v>0.02245224229445071</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.105546018073994</v>
+        <v>2.620573846044478</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02245224229445071</v>
+        <v>0.9390175047044322</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.620573846044478</v>
+        <v>1.886145115039161</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9390175047044322</v>
+        <v>20</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.886145115039161</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1561772138895392</v>
       </c>
     </row>
@@ -7164,72 +7068,66 @@
         <v>4.31772405938605e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4120093710778196</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.206533874505888</v>
+        <v>5.218456144346513e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.0346224285218043</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.218456144346513e-06</v>
+        <v>0.08399925591877407</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0346224285218043</v>
+        <v>0.008254064736812082</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08399925591877407</v>
+        <v>1.654487683822792</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008254064736812082</v>
+        <v>1.594639221713862</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.576712621573691</v>
+        <v>4.183276212880638</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.594639221713862</v>
+        <v>5.127870591092977e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.183276212880638</v>
+        <v>10172136.47168842</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.127870591092977e-14</v>
+        <v>1.075764371725815e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>10172136.47168842</v>
+        <v>5.305928738792304</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.075764371725815e-05</v>
+        <v>0.0002328960459376192</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.305928738792304</v>
+        <v>10.0492602473029</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002328960459376192</v>
+        <v>1.563323566497919</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.0492602473029</v>
+        <v>0.02351962006915268</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.563323566497919</v>
+        <v>2.614540845358447</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02351962006915268</v>
+        <v>0.9479506689221437</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.614540845358447</v>
+        <v>1.836554857582301</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9479506689221437</v>
+        <v>19</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.836554857582301</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1310692241542342</v>
       </c>
     </row>
@@ -7244,72 +7142,66 @@
         <v>4.23104515792426e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4699213709937922</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.112169894745246</v>
+        <v>5.233394713945606e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.03518181692766435</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.233394713945606e-06</v>
+        <v>0.08588718001521584</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03518181692766435</v>
+        <v>0.008614109162526558</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08588718001521584</v>
+        <v>1.740836707116992</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008614109162526558</v>
+        <v>1.40861803714046</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.669029379231896</v>
+        <v>5.375466177006975</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.40861803714046</v>
+        <v>2.798545692907389e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.375466177006975</v>
+        <v>18248014.68862158</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.798545692907389e-14</v>
+        <v>6.314513702748522e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>18248014.68862158</v>
+        <v>9.318878424361658</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.314513702748522e-06</v>
+        <v>0.0001928338351372483</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>9.318878424361658</v>
+        <v>9.092569972963942</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001928338351372483</v>
+        <v>1.595424532463409</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.092569972963942</v>
+        <v>0.01594250429009023</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.595424532463409</v>
+        <v>2.845273790939189</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01594250429009023</v>
+        <v>0.9544309349566568</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.845273790939189</v>
+        <v>1.808259659328969</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9544309349566568</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.808259659328969</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.157582311977532</v>
       </c>
     </row>
@@ -7324,72 +7216,66 @@
         <v>4.129778088847731e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.5224298723618165</v>
+        <v>1.356540735462868e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.008622266473607</v>
+        <v>5.248169007221588e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.356540735462868e-06</v>
+        <v>0.03539763082103849</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.248169007221588e-06</v>
+        <v>0.08860345993719809</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.03539763082103849</v>
+        <v>0.009103416874792384</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08860345993719809</v>
+        <v>1.801780747968823</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009103416874792384</v>
+        <v>1.585850480296139</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.754295720096956</v>
+        <v>5.058352140934474</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.585850480296139</v>
+        <v>8.769185230402212e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.058352140934474</v>
+        <v>55913238.49522156</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.769185230402212e-15</v>
+        <v>2.095268919018156e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>55913238.49522156</v>
+        <v>27.4150181899957</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.095268919018156e-06</v>
+        <v>0.0001378444652808254</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>27.4150181899957</v>
+        <v>9.438142861214518</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001378444652808254</v>
+        <v>1.205676019947967</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.438142861214518</v>
+        <v>0.01227898380647246</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.205676019947967</v>
+        <v>2.896231079346738</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01227898380647246</v>
+        <v>0.9576097639520813</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.896231079346738</v>
+        <v>1.69874526749875</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9576097639520813</v>
+        <v>42</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.69874526749875</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2118813366728005</v>
       </c>
     </row>
@@ -7404,72 +7290,66 @@
         <v>4.017058628891791e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.5690798731726873</v>
+        <v>1.356539237234566e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.897328218240542</v>
+        <v>5.262587802373003e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.356539237234566e-06</v>
+        <v>0.03534239053610771</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.262587802373003e-06</v>
+        <v>0.0919303636163759</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.03534239053610771</v>
+        <v>0.009700137661848473</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.0919303636163759</v>
+        <v>1.843746748360756</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009700137661848473</v>
+        <v>1.968489789623568</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.80983024575135</v>
+        <v>4.381395542050176</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.968489789623568</v>
+        <v>6.848102330402836e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.381395542050176</v>
+        <v>70307679.67422085</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.848102330402836e-15</v>
+        <v>1.690339228918319e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>70307679.67422085</v>
+        <v>33.85133277195075</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.690339228918319e-06</v>
+        <v>0.0001316934195681992</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>33.85133277195075</v>
+        <v>8.622325024117012</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001316934195681992</v>
+        <v>1.229064499585309</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.622325024117012</v>
+        <v>0.009790679958954997</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.229064499585309</v>
+        <v>2.960068034637956</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009790679958954997</v>
+        <v>0.9584042251621717</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.960068034637956</v>
+        <v>1.635181217326592</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9584042251621717</v>
+        <v>73</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.635181217326592</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.217102859559328</v>
       </c>
     </row>
@@ -7484,72 +7364,66 @@
         <v>3.89493398949808e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.6088734285089152</v>
+        <v>1.353083510379405e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7803250382060227</v>
+        <v>5.276544540775805e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.353083510379405e-06</v>
+        <v>0.03514479589197727</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.276544540775805e-06</v>
+        <v>0.09571723470522148</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.03514479589197727</v>
+        <v>0.01039676233384088</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.09571723470522148</v>
+        <v>1.852800234392075</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01039676233384088</v>
+        <v>1.803769885872219</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.820828989213063</v>
+        <v>4.399750044336987</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.803769885872219</v>
+        <v>6.791084849917235e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.399750044336987</v>
+        <v>70301859.31527482</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.791084849917235e-15</v>
+        <v>1.693719304956292e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>70301859.31527482</v>
+        <v>33.56392787295646</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.693719304956292e-06</v>
+        <v>0.0001305621799320816</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>33.56392787295646</v>
+        <v>7.693343669221707</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001305621799320816</v>
+        <v>1.294996195070127</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.693343669221707</v>
+        <v>0.007727653831083456</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.294996195070127</v>
+        <v>3.054086744035361</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007727653831083456</v>
+        <v>0.9588162877573131</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.054086744035361</v>
+        <v>1.640481663379041</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9588162877573131</v>
+        <v>87</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.640481663379041</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2250877703169496</v>
       </c>
     </row>
@@ -7564,72 +7438,66 @@
         <v>3.76598876042696e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.6409660892353822</v>
+        <v>1.339751851970278e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.6590726546866978</v>
+        <v>5.289910957869675e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.339751851970278e-06</v>
+        <v>0.03452611520376812</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.289910957869675e-06</v>
+        <v>0.0999919381184563</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.03452611520376812</v>
+        <v>0.01119004723550873</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0999919381184563</v>
+        <v>1.856405732521272</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01119004723550873</v>
+        <v>1.744170919157023</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.823742351604518</v>
+        <v>4.545437546625243</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.744170919157023</v>
+        <v>6.362734114357387e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.545437546625243</v>
+        <v>74735542.54518403</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.362734114357387e-15</v>
+        <v>1.594415269450884e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>74735542.54518403</v>
+        <v>35.53842351810584</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.594415269450884e-06</v>
+        <v>0.0001348853182308052</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>35.53842351810584</v>
+        <v>7.227804587749518</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001348853182308052</v>
+        <v>1.459187048822423</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.227804587749518</v>
+        <v>0.007046565377866447</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.459187048822423</v>
+        <v>3.099863555834081</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007046565377866447</v>
+        <v>0.9585692904513062</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.099863555834081</v>
+        <v>1.616847997812148</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9585692904513062</v>
+        <v>87</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.616847997812148</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2595156171954452</v>
       </c>
     </row>
@@ -7644,72 +7512,66 @@
         <v>3.63452872638427e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.6657105086985613</v>
+        <v>1.31473839411376e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.5318578687444937</v>
+        <v>5.302480130680804e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.31473839411376e-06</v>
+        <v>0.03331397651195522</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.302480130680804e-06</v>
+        <v>0.1045422125405527</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03331397651195522</v>
+        <v>0.01203826622399746</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1045422125405527</v>
+        <v>1.859005717840734</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01203826622399746</v>
+        <v>1.710826564960872</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.825737579894786</v>
+        <v>4.949347138536269</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.710826564960872</v>
+        <v>5.366601334622033e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.949347138536269</v>
+        <v>89239768.10207556</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.366601334622033e-15</v>
+        <v>1.336311939327207e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>89239768.10207556</v>
+        <v>42.73819737805935</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.336311939327207e-06</v>
+        <v>0.0001420522491354399</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>42.73819737805935</v>
+        <v>8.551636758261784</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001420522491354399</v>
+        <v>1.275907571707364</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.551636758261784</v>
+        <v>0.01038835076176794</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.275907571707364</v>
+        <v>3.034254949385525</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01038835076176794</v>
+        <v>0.9596490168039534</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.034254949385525</v>
+        <v>1.632290079424459</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9596490168039534</v>
+        <v>126</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.632290079424459</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3856807932711331</v>
       </c>
     </row>
@@ -7724,72 +7586,66 @@
         <v>3.503509431493712e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.6828952891225818</v>
+        <v>1.292329960970856e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.3980644413551309</v>
+        <v>5.314148166690159e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.292329960970856e-06</v>
+        <v>0.03213197643605536</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.314148166690159e-06</v>
+        <v>0.1093833833346928</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03213197643605536</v>
+        <v>0.01299675768145091</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1093833833346928</v>
+        <v>1.855764018722833</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01299675768145091</v>
+        <v>1.685362045418412</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.823629198274443</v>
+        <v>5.811439253078056</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.685362045418412</v>
+        <v>3.709569372995707e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.811439253078056</v>
+        <v>127846131.7607191</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.709569372995707e-15</v>
+        <v>9.317762113641925e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>127846131.7607191</v>
+        <v>60.63155149640465</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.317762113641925e-07</v>
+        <v>0.0001703905670529014</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>60.63155149640465</v>
+        <v>12.47822669219811</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001703905670529014</v>
+        <v>1.028066929551524</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.47822669219811</v>
+        <v>0.0265308577236787</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.028066929551524</v>
+        <v>2.78293597173727</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0265308577236787</v>
+        <v>0.9590882400434408</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.78293597173727</v>
+        <v>1.667030080799508</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590882400434408</v>
+        <v>156</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.667030080799508</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.6538661471240451</v>
       </c>
     </row>
@@ -7804,72 +7660,66 @@
         <v>3.370779465918094e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.6878883592912789</v>
+        <v>1.280836998460501e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.2677060777317841</v>
+        <v>5.325066842729592e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.280836998460501e-06</v>
+        <v>0.03144436462925917</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.325066842729592e-06</v>
+        <v>0.1146592985559685</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03144436462925917</v>
+        <v>0.01413515732317594</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1146592985559685</v>
+        <v>1.913826666393425</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01413515732317594</v>
+        <v>2.035687762418595</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.912569469164354</v>
+        <v>4.210176320867959</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.035687762418595</v>
+        <v>2.967778137363633e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.210176320867959</v>
+        <v>156954451.5000226</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.967778137363633e-15</v>
+        <v>7.698565753348279e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>156954451.5000226</v>
+        <v>73.1103236225034</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.698565753348279e-07</v>
+        <v>0.0002651801115234563</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>73.1103236225034</v>
+        <v>11.11321521499401</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002651801115234563</v>
+        <v>1.552658529124086</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.11321521499401</v>
+        <v>0.03275068580289288</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.552658529124086</v>
+        <v>2.823765207090104</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03275068580289288</v>
+        <v>0.9618461483648618</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.823765207090104</v>
+        <v>1.372384478838629</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9618461483648618</v>
+        <v>157</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.372384478838629</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.7670130151311811</v>
       </c>
     </row>
@@ -7884,72 +7734,66 @@
         <v>3.234270844759293e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.6743431050909409</v>
+        <v>1.272056068167088e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.1568746504576959</v>
+        <v>5.335371959836514e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.272056068167088e-06</v>
+        <v>0.03093427062594966</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.335371959836514e-06</v>
+        <v>0.1204153448337872</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03093427062594966</v>
+        <v>0.01545642046018551</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1204153448337872</v>
+        <v>1.925694967069549</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01545642046018551</v>
+        <v>1.9136977744299</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.928911583915586</v>
+        <v>5.845426873945017</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.9136977744299</v>
+        <v>1.237338022908821e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.845426873945017</v>
+        <v>373549470.01215</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.237338022908821e-15</v>
+        <v>3.242285413053958e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>373549470.01215</v>
+        <v>172.6571659463364</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.242285413053958e-07</v>
+        <v>0.0002455250082645211</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>172.6571659463364</v>
+        <v>9.724554572194688</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002455250082645211</v>
+        <v>1.902075195680734</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.724554572194688</v>
+        <v>0.02321855403516532</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.902075195680734</v>
+        <v>3.414996459527643</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02321855403516532</v>
+        <v>0.9620487935335483</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.414996459527643</v>
+        <v>1.355455534622372</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9620487935335483</v>
+        <v>157</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.355455534622372</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>1.608985048344278</v>
       </c>
     </row>
@@ -7964,72 +7808,66 @@
         <v>3.094546503931646e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.6365196069334148</v>
+        <v>1.260850803795809e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.0833810421662502</v>
+        <v>5.345076627741829e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.260850803795809e-06</v>
+        <v>0.03037119500844054</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.345076627741829e-06</v>
+        <v>0.1266900624113468</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.03037119500844054</v>
+        <v>0.01697239698392515</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1266900624113468</v>
+        <v>1.935130354132588</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01697239698392515</v>
+        <v>2.316912844329022</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.948492190794301</v>
+        <v>7.396302586204175</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.316912844329022</v>
+        <v>2.093615766022515e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.396302586204175</v>
+        <v>2180299660.719236</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.093615766022515e-16</v>
+        <v>5.573569089360135e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2180299660.719236</v>
+        <v>995.2435106856119</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.573569089360135e-08</v>
+        <v>0.0001289455326678345</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>995.2435106856119</v>
+        <v>8.424265249329272</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001289455326678345</v>
+        <v>1.824964226556247</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.424265249329272</v>
+        <v>0.009151038152873197</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.824964226556247</v>
+        <v>4.398337529102553</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.009151038152873197</v>
+        <v>0.9617461477486947</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.398337529102553</v>
+        <v>1.181601557236244</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9617461477486947</v>
+        <v>157</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.181601557236244</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>3.132857461881978</v>
       </c>
     </row>
@@ -8044,72 +7882,66 @@
         <v>2.953175580431649e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.5685968018716574</v>
+        <v>1.245171800552719e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.06855222380340109</v>
+        <v>5.354161741774682e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.245171800552719e-06</v>
+        <v>0.02964379347835692</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.354161741774682e-06</v>
+        <v>0.133459850653417</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.02964379347835692</v>
+        <v>0.01868974218802055</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.133459850653417</v>
+        <v>1.936593393643068</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01868974218802055</v>
+        <v>3.341606153557477</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.956284335763783</v>
+        <v>5.182858524363827</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.341606153557477</v>
+        <v>1.17736363864782e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.182858524363827</v>
+        <v>3734206498.020217</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.17736363864782e-16</v>
+        <v>3.253531777832397e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>3734206498.020217</v>
+        <v>1641.750963165229</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.253531777832397e-08</v>
+        <v>0.0001003909662960189</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1641.750963165229</v>
+        <v>10.9899459872951</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001003909662960189</v>
+        <v>1.194004746770832</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.9899459872951</v>
+        <v>0.01212511176454242</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.194004746770832</v>
+        <v>4.690769810502663</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01212511176454242</v>
+        <v>0.9615388098749267</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.690769810502663</v>
+        <v>1.000689692262131</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9615388098749267</v>
+        <v>146</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.000689692262131</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>4.276105528448505</v>
       </c>
     </row>
@@ -8124,72 +7956,66 @@
         <v>2.813560573725404e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4669644795386749</v>
+        <v>1.219883247517312e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.1311387203813261</v>
+        <v>5.362539245698621e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.219883247517312e-06</v>
+        <v>0.02831218386628135</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.362539245698621e-06</v>
+        <v>0.1405544718469162</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02831218386628135</v>
+        <v>0.02055601120480563</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1405544718469162</v>
+        <v>1.938171098484782</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02055601120480563</v>
+        <v>3.683944577467948</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.95776660709284</v>
+        <v>5.121952960706951</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.683944577467948</v>
+        <v>1.205530370920386e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.121952960706951</v>
+        <v>3662657570.721405</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.205530370920386e-16</v>
+        <v>3.314755377363252e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>3662657570.721405</v>
+        <v>1617.22628368112</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.314755377363252e-08</v>
+        <v>0.0001031956874193797</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1617.22628368112</v>
+        <v>13.60672703845262</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001031956874193797</v>
+        <v>1.042850352797551</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>13.60672703845262</v>
+        <v>0.01910596129192938</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.042850352797551</v>
+        <v>4.624419581824513</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01910596129192938</v>
+        <v>0.961971426998497</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.624419581824513</v>
+        <v>1.007484988156083</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.961971426998497</v>
+        <v>180</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.007484988156083</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>4.859157105543665</v>
       </c>
     </row>
@@ -8204,72 +8030,66 @@
         <v>2.682082429070727e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3357343568753874</v>
+        <v>1.179388246376007e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.2708635312342245</v>
+        <v>5.37001334873971e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.179388246376007e-06</v>
+        <v>0.02586160064679103</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.37001334873971e-06</v>
+        <v>0.1472203429988775</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02586160064679103</v>
+        <v>0.02234008530101815</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1472203429988775</v>
+        <v>1.940411710478988</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02234008530101815</v>
+        <v>3.287230920857954</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.958381354328486</v>
+        <v>5.044769216012545</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.287230920857954</v>
+        <v>1.242701208784332e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.044769216012545</v>
+        <v>3567765663.919159</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.242701208784332e-16</v>
+        <v>3.406646495595661e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>3567765663.919159</v>
+        <v>1581.828382897992</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.406646495595661e-08</v>
+        <v>9.883190926318608e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1581.828382897992</v>
+        <v>11.76298245243347</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>9.883190926318608e-05</v>
+        <v>1.194614661848401</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.76298245243347</v>
+        <v>0.01367514952336256</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.194614661848401</v>
+        <v>4.672001469666758</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01367514952336256</v>
+        <v>0.9631104463969145</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.672001469666758</v>
+        <v>1.00329259371442</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9631104463969145</v>
+        <v>180</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.00329259371442</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>4.272144742479565</v>
       </c>
     </row>
@@ -8284,72 +8104,66 @@
         <v>2.567503070725217e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.1925398033579865</v>
+        <v>1.123555995375911e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.450068042844542</v>
+        <v>5.376329290168941e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.123555995375911e-06</v>
+        <v>0.02215735175508104</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.376329290168941e-06</v>
+        <v>0.1522942976323511</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.02215735175508104</v>
+        <v>0.02368112747716329</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1522942976323511</v>
+        <v>1.933737514847415</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02368112747716329</v>
+        <v>3.40783306162407</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.952914104241392</v>
+        <v>4.746154808175143</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.40783306162407</v>
+        <v>1.403994892228532e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.746154808175143</v>
+        <v>3161232860.626566</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.403994892228532e-16</v>
+        <v>3.827907378874467e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>3161232860.626566</v>
+        <v>1403.067300757508</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.827907378874467e-08</v>
+        <v>8.706908560024375e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1403.067300757508</v>
+        <v>7.998835836426492</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>8.706908560024375e-05</v>
+        <v>1.596122164276101</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.998835836426492</v>
+        <v>0.005570799793892962</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.596122164276101</v>
+        <v>4.708802111596466</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.005570799793892962</v>
+        <v>0.9631694716703528</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.708802111596466</v>
+        <v>1.027422434092818</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9631694716703528</v>
+        <v>178</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.027422434092818</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>178</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>3.669224501426718</v>
       </c>
     </row>
@@ -8364,72 +8178,66 @@
         <v>2.47390051489949e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.05479706051583985</v>
+        <v>1.071027095387635e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.6313142287038542</v>
+        <v>5.381420720851274e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.071027095387635e-06</v>
+        <v>0.01822992301104307</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.381420720851274e-06</v>
+        <v>0.1565745415635987</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.01822992301104307</v>
+        <v>0.02484485163015</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1565745415635987</v>
+        <v>1.9273115462895</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02484485163015</v>
+        <v>2.706310026325426</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.940882430377418</v>
+        <v>5.526906270637534</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.706310026325426</v>
+        <v>1.820630772863743e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.526906270637534</v>
+        <v>2413625633.944518</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.820630772863743e-16</v>
+        <v>5.016600933839706e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2413625633.944518</v>
+        <v>1060.624605878583</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.016600933839706e-08</v>
+        <v>8.981133054140154e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1060.624605878583</v>
+        <v>6.510170088742401</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>8.981133054140154e-05</v>
+        <v>2.253465007042997</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.510170088742401</v>
+        <v>0.003806412064245282</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>2.253465007042997</v>
+        <v>4.594481789233588</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.003806412064245282</v>
+        <v>0.9635689505779598</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.594481789233588</v>
+        <v>1.143760150243611</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9635689505779598</v>
+        <v>181</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.143760150243611</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.133576587703844</v>
       </c>
     </row>
@@ -8444,72 +8252,66 @@
         <v>2.401530565164976e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.06638637905931062</v>
+        <v>1.017303756219305e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7957146407540772</v>
+        <v>5.385325269361326e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.017303756219305e-06</v>
+        <v>0.01362686577472571</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.385325269361326e-06</v>
+        <v>0.1595921862851129</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.01362686577472571</v>
+        <v>0.02565093878866214</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1595921862851129</v>
+        <v>1.923828484936521</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02565093878866214</v>
+        <v>2.608878322113154</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.93560863856807</v>
+        <v>5.334813617214779</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.608878322113154</v>
+        <v>2.167248694433436e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.334813617214779</v>
+        <v>2001512613.052322</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.167248694433436e-16</v>
+        <v>6.018686336663355e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2001512613.052322</v>
+        <v>868.2112571046266</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.018686336663355e-08</v>
+        <v>8.915096310955258e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>868.2112571046266</v>
+        <v>8.263854178311142</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>8.915096310955258e-05</v>
+        <v>1.995499403378388</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.263854178311142</v>
+        <v>0.006088233908226606</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.995499403378388</v>
+        <v>4.496282033508323</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.006088233908226606</v>
+        <v>0.9632550354833093</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.496282033508323</v>
+        <v>1.143644034634728</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9632550354833093</v>
+        <v>184</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.143644034634728</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>2.874999815147504</v>
       </c>
     </row>
@@ -8524,72 +8326,66 @@
         <v>2.354256702392264e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.1510972538242115</v>
+        <v>9.529846381715551e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.906668442711259</v>
+        <v>5.387898012130895e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>9.529846381715551e-07</v>
+        <v>0.007867892545995361</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>5.387898012130895e-06</v>
+        <v>0.1597528792195005</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.007867892545995361</v>
+        <v>0.02557674245396184</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1597528792195005</v>
+        <v>1.937319200164161</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02557674245396184</v>
+        <v>3.065068446245057</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.94727547146455</v>
+        <v>5.302374309696363</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.065068446245057</v>
+        <v>2.233609114423814e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.302374309696363</v>
+        <v>2065944853.204094</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.233609114423814e-16</v>
+        <v>5.889792867268126e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>2065944853.204094</v>
+        <v>953.3329907171537</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.889792867268126e-08</v>
+        <v>8.663876258104825e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>953.3329907171537</v>
+        <v>9.9218570993045</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>8.663876258104825e-05</v>
+        <v>1.518675892476851</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.9218570993045</v>
+        <v>0.008529001217085899</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.518675892476851</v>
+        <v>4.192343810976188</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008529001217085899</v>
+        <v>0.9637577963074093</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.192343810976188</v>
+        <v>1.192143124918682</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9637577963074093</v>
+        <v>171</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.192143124918682</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>2.458228681680716</v>
       </c>
     </row>
@@ -8604,72 +8400,66 @@
         <v>2.334799585383031e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.1855892857070932</v>
+        <v>8.811771494108831e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.9466010629179582</v>
+        <v>5.388991128985434e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>8.811771494108831e-07</v>
+        <v>0.00147009238916931</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.388991128985434e-06</v>
+        <v>0.1566538103467263</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.00147009238916931</v>
+        <v>0.02453607550751858</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1566538103467263</v>
+        <v>1.925926344016999</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02453607550751858</v>
+        <v>2.700181108330913</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.93729740530362</v>
+        <v>5.453118866012717</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.700181108330913</v>
+        <v>2.669948298198764e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.453118866012717</v>
+        <v>1613023778.388315</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.669948298198764e-16</v>
+        <v>7.47234414145907e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1613023778.388315</v>
+        <v>694.6793524645404</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>7.47234414145907e-08</v>
+        <v>8.845956922027588e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>694.6793524645404</v>
+        <v>7.540976320920173</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>8.845956922027588e-05</v>
+        <v>1.633151297035098</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.540976320920173</v>
+        <v>0.005030370512917852</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.633151297035098</v>
+        <v>3.977587336890799</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.005030370512917852</v>
+        <v>0.9632293490989182</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.977587336890799</v>
+        <v>1.211189308292732</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9632293490989182</v>
+        <v>140</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.211189308292732</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>1.735948523146861</v>
       </c>
     </row>
@@ -8684,72 +8474,66 @@
         <v>2.340865990926195e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.1764172655133208</v>
+        <v>8.756184844157435e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9396275522164981</v>
+        <v>5.388611772908238e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>8.756184844157435e-07</v>
+        <v>-0.004548021711903917</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.388611772908238e-06</v>
+        <v>0.1516059104674664</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.004548021711903917</v>
+        <v>0.02299991127818043</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1516059104674664</v>
+        <v>1.923949853762191</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02299991127818043</v>
+        <v>2.548281502215845</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.936879764759291</v>
+        <v>5.430540325486215</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.548281502215845</v>
+        <v>3.642270573718294e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.430540325486215</v>
+        <v>1167174831.200821</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.642270573718294e-16</v>
+        <v>1.031553615224884e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1167174831.200821</v>
+        <v>496.1854591144055</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.031553615224884e-07</v>
+        <v>9.32734997009141e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>496.1854591144055</v>
+        <v>6.021150235785736</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>9.32734997009141e-05</v>
+        <v>1.756042835293978</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>6.021150235785736</v>
+        <v>0.00338156079163309</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.756042835293978</v>
+        <v>3.892223812808392</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.00338156079163309</v>
+        <v>0.9632970373511135</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.892223812808392</v>
+        <v>1.196421367917426</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9632970373511135</v>
+        <v>121</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.196421367917426</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>1.290768737111098</v>
       </c>
     </row>
@@ -8764,72 +8548,66 @@
         <v>2.365553490457938e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.1436882830733775</v>
+        <v>8.849372705610141e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.9224272895414516</v>
+        <v>5.386990006824891e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>8.849372705610141e-07</v>
+        <v>-0.008770639621353179</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5.386990006824891e-06</v>
+        <v>0.1472129335122438</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.008770639621353179</v>
+        <v>0.02174701400601915</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1472129335122438</v>
+        <v>1.918087190456885</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02174701400601915</v>
+        <v>2.409493339475941</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.933556605050823</v>
+        <v>5.243743741820386</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.409493339475941</v>
+        <v>4.907891567167417e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.243743741820386</v>
+        <v>857926438.3486421</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>4.907891567167417e-16</v>
+        <v>1.400846147934645e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>857926438.3486421</v>
+        <v>361.2393582254433</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.400846147934645e-07</v>
+        <v>0.0001053131628821016</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>361.2393582254433</v>
+        <v>6.389105254905735</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001053131628821016</v>
+        <v>1.599147575539215</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>6.389105254905735</v>
+        <v>0.004298953443018526</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.599147575539215</v>
+        <v>3.719998876518122</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.004298953443018526</v>
+        <v>0.9633980299387237</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.719998876518122</v>
+        <v>1.230843518417196</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9633980299387237</v>
+        <v>121</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.230843518417196</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>1.074059065604953</v>
       </c>
     </row>
@@ -8844,72 +8622,66 @@
         <v>2.399370485259024e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1060085261408164</v>
+        <v>8.887947110758982e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9135952222201622</v>
+        <v>5.384633037856878e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>8.887947110758982e-07</v>
+        <v>-0.01075459968128656</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.384633037856878e-06</v>
+        <v>0.1442890123055496</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01075459968128656</v>
+        <v>0.0209345297007067</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1442890123055496</v>
+        <v>1.913972625138036</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.0209345297007067</v>
+        <v>2.478549874367394</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.929538214046728</v>
+        <v>5.130637018617352</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.478549874367394</v>
+        <v>5.126669231979989e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.130637018617352</v>
+        <v>811866022.4487174</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5.126669231979989e-16</v>
+        <v>1.480439022569782e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>811866022.4487174</v>
+        <v>337.9123231764189</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.480439022569782e-07</v>
+        <v>0.0001216004793952896</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>337.9123231764189</v>
+        <v>8.634289308758254</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001216004793952896</v>
+        <v>1.274907201122434</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.634289308758254</v>
+        <v>0.00906543148644335</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.274907201122434</v>
+        <v>3.480704234692112</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.00906543148644335</v>
+        <v>0.9636074184733783</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.480704234692112</v>
+        <v>1.226716952029821</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9636074184733783</v>
+        <v>82</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.226716952029821</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.07117574337228</v>
       </c>
     </row>
@@ -9286,7 +9058,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.325135119755878</v>
+        <v>1.297556315484515</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.097301225629845</v>
@@ -9375,7 +9147,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.326939429284028</v>
+        <v>1.297428363132209</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.041756883999025</v>
@@ -9464,7 +9236,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.359222061250727</v>
+        <v>1.329967686085014</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.0036280180694</v>
@@ -9553,7 +9325,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.367718437177747</v>
+        <v>1.339796020961062</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.041984640510369</v>
@@ -9642,7 +9414,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.372536917206961</v>
+        <v>1.342308110806615</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.015493828349229</v>
@@ -9731,7 +9503,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411670115217191</v>
+        <v>1.371159833536926</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.766754541923963</v>
@@ -9820,7 +9592,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.442255279065572</v>
+        <v>1.391233119170175</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.936434971526168</v>
@@ -9909,7 +9681,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444599271357585</v>
+        <v>1.398594659190564</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.416128513734519</v>
@@ -9998,7 +9770,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441392009254933</v>
+        <v>1.3921641761652</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.416385244746625</v>
@@ -10087,7 +9859,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.444896171294092</v>
+        <v>1.392327215289811</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.313174297411407</v>
@@ -10176,7 +9948,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.442086064796763</v>
+        <v>1.38923568165504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.432663956613456</v>
@@ -10265,7 +10037,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.428046213031236</v>
+        <v>1.383387227851977</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.205785838724688</v>
@@ -10354,7 +10126,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.429608090952563</v>
+        <v>1.382990135858515</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.119441356047078</v>
@@ -10443,7 +10215,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.42671580819312</v>
+        <v>1.383416847079773</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.145649877748996</v>
@@ -10532,7 +10304,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.443464631657734</v>
+        <v>1.401981228101657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.164625677853544</v>
@@ -10621,7 +10393,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.436350499147162</v>
+        <v>1.398490049111908</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.273115135243632</v>
@@ -10710,7 +10482,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.4440753078061</v>
+        <v>1.405762584057976</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.194631328584649</v>
@@ -10799,7 +10571,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450540584672124</v>
+        <v>1.414282066302995</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.246010336719837</v>
@@ -10888,7 +10660,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.442383540664282</v>
+        <v>1.408990075179301</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.219343144416781</v>
@@ -10977,7 +10749,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.4709067707315</v>
+        <v>1.436642058004493</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.215073956672483</v>
@@ -11066,7 +10838,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.48581965897004</v>
+        <v>1.455134361568729</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.153361590474023</v>
@@ -11155,7 +10927,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.488155707651223</v>
+        <v>1.457119010611726</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.118586058986682</v>
@@ -11244,7 +11016,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.50831895415253</v>
+        <v>1.480908709764623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.093282595367302</v>
@@ -11333,7 +11105,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51083471668076</v>
+        <v>1.486593011921372</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.117952266062826</v>
@@ -11422,7 +11194,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509313286841566</v>
+        <v>1.48780201242176</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.118422380835352</v>
@@ -11511,7 +11283,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.483391704590176</v>
+        <v>1.461590679587839</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.111972258088632</v>
@@ -11600,7 +11372,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.437181151970766</v>
+        <v>1.42277539586619</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.109097084977024</v>
@@ -11689,7 +11461,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.437272690054412</v>
+        <v>1.42687501121022</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.091132421607889</v>
@@ -11778,7 +11550,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.408388951550121</v>
+        <v>1.408518461827375</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.082164532475463</v>
@@ -11867,7 +11639,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.405452600595132</v>
+        <v>1.41107378731811</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.057566374422668</v>
@@ -11956,7 +11728,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.413988142131727</v>
+        <v>1.416136347307694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.081081379640348</v>
@@ -12045,7 +11817,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.408102482803328</v>
+        <v>1.41181496424107</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.097785112742789</v>
@@ -12134,7 +11906,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.397503360547549</v>
+        <v>1.398670578453859</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.034035166625517</v>
@@ -12223,7 +11995,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.384000439629063</v>
+        <v>1.380080417413092</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.023768306420763</v>
@@ -12312,7 +12084,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.37350189672721</v>
+        <v>1.365231473156117</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.057253514205065</v>
@@ -12401,7 +12173,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.34367256180317</v>
+        <v>1.340140055515339</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.047211493401153</v>
@@ -12490,7 +12262,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.341192040218576</v>
+        <v>1.337638942257088</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.05031339865695</v>
@@ -12579,7 +12351,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.337673273272216</v>
+        <v>1.331179995340288</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.048779606392537</v>
@@ -12668,7 +12440,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.333716129750205</v>
+        <v>1.324824002902562</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.083102413939326</v>
@@ -12757,7 +12529,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.321119263443565</v>
+        <v>1.310103259972164</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.094511403015789</v>
@@ -12846,7 +12618,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.321732159534071</v>
+        <v>1.310536702777986</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.049411791955153</v>
@@ -12935,7 +12707,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.353532581811216</v>
+        <v>1.339875216453524</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.882938893907753</v>
@@ -13024,7 +12796,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.365085276252663</v>
+        <v>1.34003110885236</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.790124572760627</v>
@@ -13113,7 +12885,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.37916710279477</v>
+        <v>1.351359539497202</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.952877118437658</v>
@@ -13202,7 +12974,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.360471520849422</v>
+        <v>1.333707083401098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.912443555314014</v>
@@ -13291,7 +13063,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.324898384331075</v>
+        <v>1.297821552099675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.906081974034034</v>
@@ -13380,7 +13152,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.320560084867829</v>
+        <v>1.293114152417855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.925432856191408</v>
@@ -13469,7 +13241,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.297714104560241</v>
+        <v>1.278749940074083</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.918199967677881</v>
@@ -13558,7 +13330,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.319040411985007</v>
+        <v>1.295642272554766</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.91622565319901</v>
@@ -13647,7 +13419,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.315675514630598</v>
+        <v>1.296497744425199</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.996078036663074</v>
@@ -13736,7 +13508,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.322875593729734</v>
+        <v>1.301587083390467</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.899135428231948</v>
@@ -13825,7 +13597,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.326767331484312</v>
+        <v>1.302854391804586</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.88557099727732</v>
@@ -13914,7 +13686,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.333088798846184</v>
+        <v>1.306716970737449</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.891997384438803</v>
@@ -14003,7 +13775,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.331917273544202</v>
+        <v>1.304031041124208</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.945736876429363</v>
@@ -14092,7 +13864,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.348017387164964</v>
+        <v>1.319107563257561</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.077592762427236</v>
@@ -14181,7 +13953,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.327901477561982</v>
+        <v>1.302243291924513</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.048612586353374</v>
@@ -14270,7 +14042,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.314294013491105</v>
+        <v>1.287393127831847</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.07788691347361</v>
@@ -14359,7 +14131,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.306278284683442</v>
+        <v>1.277475271051343</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.05366989516023</v>
@@ -14448,7 +14220,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.309106354742509</v>
+        <v>1.281109617821032</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.114576556588654</v>
@@ -14537,7 +14309,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.32215592022028</v>
+        <v>1.293728607511829</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.056811843953855</v>
@@ -14626,7 +14398,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.35732673054938</v>
+        <v>1.330308749569108</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.000629936478729</v>
@@ -14715,7 +14487,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.360796410214542</v>
+        <v>1.335451766346684</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.021347686559125</v>
@@ -14804,7 +14576,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.403664114393945</v>
+        <v>1.366045604263068</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.981165728749945</v>
@@ -14893,7 +14665,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.423203920155857</v>
+        <v>1.385812087312987</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.831423919573832</v>
@@ -14982,7 +14754,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.413458162612123</v>
+        <v>1.373968375721499</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.915975933896919</v>
@@ -15071,7 +14843,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.404129339741942</v>
+        <v>1.36223347661136</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.92162864177372</v>
@@ -15160,7 +14932,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.378056650128952</v>
+        <v>1.337735901430539</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.952844005316386</v>
@@ -15249,7 +15021,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.374529672905981</v>
+        <v>1.333889609650911</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.005332292087485</v>
@@ -15338,7 +15110,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.38532133901818</v>
+        <v>1.346340948644921</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.003288461843131</v>
@@ -15427,7 +15199,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.39231270909021</v>
+        <v>1.354736258160729</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.983953279782344</v>
@@ -15516,7 +15288,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.449232655290075</v>
+        <v>1.402848399085024</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.913669656211979</v>
@@ -15605,7 +15377,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.460105637750605</v>
+        <v>1.413030638557369</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.033672370567071</v>
@@ -15694,7 +15466,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.486217403904452</v>
+        <v>1.43929682145726</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.95029791150467</v>
@@ -15783,7 +15555,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.49006851387985</v>
+        <v>1.440292753405069</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.028688726352899</v>
@@ -15872,7 +15644,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.492328091220124</v>
+        <v>1.442090193129609</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.932567556358981</v>
@@ -15961,7 +15733,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.488931938888374</v>
+        <v>1.436346530742195</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.949197105480843</v>
@@ -16050,7 +15822,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.485567090646698</v>
+        <v>1.436801891441187</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.951876451548558</v>
@@ -16139,7 +15911,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.487374840601482</v>
+        <v>1.436061603328745</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.956279744672236</v>
@@ -16228,7 +16000,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.49602987174677</v>
+        <v>1.442382567840523</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.023423018441544</v>
@@ -16317,7 +16089,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.503840117167749</v>
+        <v>1.435734603438941</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.032099918587758</v>
@@ -16406,7 +16178,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.500876884251692</v>
+        <v>1.451046443527406</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.997548774930991</v>
@@ -16692,7 +16464,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.291239739132088</v>
+        <v>1.267070231373517</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.043846750858253</v>
@@ -16781,7 +16553,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.298807355796092</v>
+        <v>1.272101973864505</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.999084709800972</v>
@@ -16870,7 +16642,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.333765848727412</v>
+        <v>1.305030757081433</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.945353019221731</v>
@@ -16959,7 +16731,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.344470982154715</v>
+        <v>1.318583316926396</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.980535289866814</v>
@@ -17048,7 +16820,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.349353001785468</v>
+        <v>1.321679733822741</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.943702470988553</v>
@@ -17137,7 +16909,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.399720738804721</v>
+        <v>1.359791044983536</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.704726153415419</v>
@@ -17226,7 +16998,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.429571322263231</v>
+        <v>1.379684680169853</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.843079850767093</v>
@@ -17315,7 +17087,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431683238170128</v>
+        <v>1.391753022063279</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.257162313012194</v>
@@ -17404,7 +17176,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.428531055216515</v>
+        <v>1.388702006348877</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.21361005941871</v>
@@ -17493,7 +17265,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.439431663488842</v>
+        <v>1.395373795474611</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.174842355397461</v>
@@ -17582,7 +17354,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.431522936913177</v>
+        <v>1.384837248479485</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.283710540949508</v>
@@ -17671,7 +17443,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.421168983602485</v>
+        <v>1.377766100647451</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.106395185932931</v>
@@ -17760,7 +17532,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.417224857781606</v>
+        <v>1.373212225613808</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.995815483790398</v>
@@ -17849,7 +17621,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.399998853100985</v>
+        <v>1.363080906327289</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.010923688671467</v>
@@ -17938,7 +17710,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410303132439762</v>
+        <v>1.371481866178427</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.097827254367847</v>
@@ -18027,7 +17799,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.407812130700595</v>
+        <v>1.370393632473165</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.102932010986538</v>
@@ -18116,7 +17888,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.405389080441706</v>
+        <v>1.369373752088386</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.113149662069412</v>
@@ -18205,7 +17977,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.400689230084897</v>
+        <v>1.366203413750449</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.089594271821825</v>
@@ -18294,7 +18066,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.377167848976695</v>
+        <v>1.338750933062261</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.042620569161183</v>
@@ -18383,7 +18155,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.401375851601625</v>
+        <v>1.362927691410101</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.037309836169837</v>
@@ -18472,7 +18244,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.400716356406198</v>
+        <v>1.361285344235118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.954856697539175</v>
@@ -18561,7 +18333,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.403638144667886</v>
+        <v>1.363784862990255</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.958370620363661</v>
@@ -18650,7 +18422,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.417792644908039</v>
+        <v>1.375387125959622</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.943798157788994</v>
@@ -18739,7 +18511,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.420644665884155</v>
+        <v>1.378972937728853</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.931977388170846</v>
@@ -18828,7 +18600,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.421598793880514</v>
+        <v>1.383141223167394</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.903688709905585</v>
@@ -18917,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.401046701858829</v>
+        <v>1.369827499668892</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.977993031314492</v>
@@ -19006,7 +18778,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.3538462521507</v>
+        <v>1.330555345018055</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.973675681567298</v>
@@ -19095,7 +18867,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.365606507199412</v>
+        <v>1.344755558996013</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.037576830044091</v>
@@ -19184,7 +18956,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.367342702667126</v>
+        <v>1.344426278257316</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.042064168449441</v>
@@ -19273,7 +19045,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.359852824642457</v>
+        <v>1.341937176170823</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.017659735433007</v>
@@ -19362,7 +19134,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.37667020531654</v>
+        <v>1.360328684411804</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.073373251058689</v>
@@ -19451,7 +19223,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.370544249237723</v>
+        <v>1.357061821767925</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.076468104511636</v>
@@ -19540,7 +19312,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.373598784081172</v>
+        <v>1.361375125075637</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.09151165007896</v>
@@ -19629,7 +19401,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.374736497488255</v>
+        <v>1.359430575469103</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.068369993957459</v>
@@ -19718,7 +19490,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.356737005477301</v>
+        <v>1.342031716573294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.055474997800751</v>
@@ -19807,7 +19579,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.331696677420073</v>
+        <v>1.328652496015574</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.037321884474153</v>
@@ -19896,7 +19668,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.329528718097233</v>
+        <v>1.328099087195733</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.01407728220466</v>
@@ -19985,7 +19757,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.333824180287579</v>
+        <v>1.33000065605168</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.066125951621846</v>
@@ -20074,7 +19846,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.326282405043647</v>
+        <v>1.32008898852513</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.086006744241756</v>
@@ -20163,7 +19935,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.308266608478144</v>
+        <v>1.297030804028617</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.995799014213739</v>
@@ -20252,7 +20024,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.307930342274017</v>
+        <v>1.29557209787288</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.922472339000748</v>
@@ -20341,7 +20113,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.342741709188839</v>
+        <v>1.328613569597878</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.871839575467894</v>
@@ -20430,7 +20202,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.348933170022466</v>
+        <v>1.334279150966014</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.856996294119934</v>
@@ -20519,7 +20291,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.354433333832163</v>
+        <v>1.338062686373701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.844887647787241</v>
@@ -20608,7 +20380,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.333281490497487</v>
+        <v>1.319803497191863</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.858947160153099</v>
@@ -20697,7 +20469,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.295245682324125</v>
+        <v>1.277359213066454</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.832698001243534</v>
@@ -20786,7 +20558,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.284486470601803</v>
+        <v>1.26707241768735</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.849946455004161</v>
@@ -20875,7 +20647,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.265593870789832</v>
+        <v>1.252378459786362</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.883130092937316</v>
@@ -20964,7 +20736,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.281837960700086</v>
+        <v>1.265409417773089</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.859723246966758</v>
@@ -21053,7 +20825,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.284327165459174</v>
+        <v>1.271562778615753</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.94570972454102</v>
@@ -21142,7 +20914,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.291045900386808</v>
+        <v>1.276217799105968</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.838648040567891</v>
@@ -21231,7 +21003,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.294777881524485</v>
+        <v>1.278654969416873</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.828753047547065</v>
@@ -21320,7 +21092,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.294210785274798</v>
+        <v>1.279172145793359</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.802843474700578</v>
@@ -21409,7 +21181,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.289686091597201</v>
+        <v>1.274714668514753</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.848315424717868</v>
@@ -21498,7 +21270,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.305660542483844</v>
+        <v>1.297353350886802</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.957518827821182</v>
@@ -21587,7 +21359,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.278124434343112</v>
+        <v>1.27218033221503</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.922206100449413</v>
@@ -21676,7 +21448,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.264363603158889</v>
+        <v>1.258924588254015</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.941937214207727</v>
@@ -21765,7 +21537,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.25038325705749</v>
+        <v>1.243950416856941</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.922309493026678</v>
@@ -21854,7 +21626,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.248609192682566</v>
+        <v>1.24340092073204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.961662050591877</v>
@@ -21943,7 +21715,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.260693225851276</v>
+        <v>1.256674474619109</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.965301726727244</v>
@@ -22032,7 +21804,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.292721283491633</v>
+        <v>1.291753973206469</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.896921005629107</v>
@@ -22121,7 +21893,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.298774583225835</v>
+        <v>1.298812953376435</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.908550018716973</v>
@@ -22210,7 +21982,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.324760128570668</v>
+        <v>1.315579951791178</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.874713039512087</v>
@@ -22299,7 +22071,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.342870125316927</v>
+        <v>1.332477054355404</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.711445478994925</v>
@@ -22388,7 +22160,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.339897120985501</v>
+        <v>1.320599468578652</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.819324251009196</v>
@@ -22477,7 +22249,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.323919437250096</v>
+        <v>1.308549249805277</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.82234037649461</v>
@@ -22566,7 +22338,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.30741547434388</v>
+        <v>1.286273465828839</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.855637739754347</v>
@@ -22655,7 +22427,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.308554582403325</v>
+        <v>1.280387303758099</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.888421045491773</v>
@@ -22744,7 +22516,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.322514395506986</v>
+        <v>1.293794587818568</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.90413060894083</v>
@@ -22833,7 +22605,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.327012093414024</v>
+        <v>1.297565667708714</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.897176028521526</v>
@@ -22922,7 +22694,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.377139792089374</v>
+        <v>1.3439839945528</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.81258739812861</v>
@@ -23011,7 +22783,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.390568967749921</v>
+        <v>1.350901296854417</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.908464369007741</v>
@@ -23100,7 +22872,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.417694957835053</v>
+        <v>1.375656856768058</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.854519869381072</v>
@@ -23189,7 +22961,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.427253589503717</v>
+        <v>1.38261602520266</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.894415770621432</v>
@@ -23278,7 +23050,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.42814506720622</v>
+        <v>1.38335231156683</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.846848356093859</v>
@@ -23367,7 +23139,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.42753099839379</v>
+        <v>1.380059849509064</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.839896841859792</v>
@@ -23456,7 +23228,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.430198368201103</v>
+        <v>1.381380612739907</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.832161933231128</v>
@@ -23545,7 +23317,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.433284455299393</v>
+        <v>1.386587410699361</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.862184146963465</v>
@@ -23634,7 +23406,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.445162639475025</v>
+        <v>1.39471922475131</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.890106251040386</v>
@@ -23723,7 +23495,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.461129982439342</v>
+        <v>1.394905867688156</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.958970083987453</v>
@@ -23812,7 +23584,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.458569826831566</v>
+        <v>1.400748471534359</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.890150853362608</v>
@@ -24098,7 +23870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.316453432268458</v>
+        <v>1.287195689165828</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.08757160650981</v>
@@ -24187,7 +23959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.318937300225504</v>
+        <v>1.285789732909813</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.023350665898064</v>
@@ -24276,7 +24048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.350219270944381</v>
+        <v>1.314998707315024</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.989207396067678</v>
@@ -24365,7 +24137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.356817631228244</v>
+        <v>1.320284784297174</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.033419627823349</v>
@@ -24454,7 +24226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360355339402457</v>
+        <v>1.320304441679935</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.027589887180518</v>
@@ -24543,7 +24315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401715129606651</v>
+        <v>1.351229226894404</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.740351123654872</v>
@@ -24632,7 +24404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.430624560533781</v>
+        <v>1.364542075040697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.872494706470635</v>
@@ -24721,7 +24493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429989707781899</v>
+        <v>1.368224996173301</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.358345373755236</v>
@@ -24810,7 +24582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.429550819432241</v>
+        <v>1.363307847916408</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.327401636707002</v>
@@ -24899,7 +24671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.436211886819508</v>
+        <v>1.36472971666085</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.30727060487229</v>
@@ -24988,7 +24760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432254930515989</v>
+        <v>1.36236278942852</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.371263095456983</v>
@@ -25077,7 +24849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.427690195546739</v>
+        <v>1.365749446880719</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.138582744295932</v>
@@ -25166,7 +24938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.425413808100833</v>
+        <v>1.362042089118013</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.036086950808007</v>
@@ -25255,7 +25027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.414876589593146</v>
+        <v>1.356189655882614</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.060434569894846</v>
@@ -25344,7 +25116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.430552000516086</v>
+        <v>1.375425009369376</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.116499637172634</v>
@@ -25433,7 +25205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.426779859472461</v>
+        <v>1.371863389255102</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.150095987510167</v>
@@ -25522,7 +25294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.427717838772428</v>
+        <v>1.369994302241147</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.097066808827554</v>
@@ -25611,7 +25383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.426879998691641</v>
+        <v>1.370017708543754</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.142663385331558</v>
@@ -25700,7 +25472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41261705760511</v>
+        <v>1.355777522444457</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.078156767369679</v>
@@ -25789,7 +25561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.432617239319278</v>
+        <v>1.376060370428627</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.082577052111946</v>
@@ -25878,7 +25650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.437534335607261</v>
+        <v>1.381592830633482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.015628094451345</v>
@@ -25967,7 +25739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.437718277473371</v>
+        <v>1.38434310880927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.024733227455134</v>
@@ -26056,7 +25828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451907362124832</v>
+        <v>1.402343812322439</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.98080886162855</v>
@@ -26145,7 +25917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.454857749639403</v>
+        <v>1.411128429250008</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.984937597429327</v>
@@ -26234,7 +26006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.462393899305278</v>
+        <v>1.422622169494531</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.020853378177029</v>
@@ -26323,7 +26095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440310250839123</v>
+        <v>1.40315828366602</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.039249701129445</v>
@@ -26412,7 +26184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390154145692226</v>
+        <v>1.364662088191509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.022682245332378</v>
@@ -26501,7 +26273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.409195475629224</v>
+        <v>1.390897568009064</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.137711224133035</v>
@@ -26590,7 +26362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.408473968772166</v>
+        <v>1.391268615306365</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.144683908880892</v>
@@ -26679,7 +26451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.405828099206056</v>
+        <v>1.393946846959149</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.148387399811381</v>
@@ -26768,7 +26540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.4168527742588</v>
+        <v>1.397782605527296</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.182368994883193</v>
@@ -26857,7 +26629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.409523640526959</v>
+        <v>1.395322875538667</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.195324384036545</v>
@@ -26946,7 +26718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.410459846607576</v>
+        <v>1.393433746280181</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.185286237864724</v>
@@ -27035,7 +26807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.405293355381608</v>
+        <v>1.386554627619494</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.178866840716923</v>
@@ -27124,7 +26896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.391578834570508</v>
+        <v>1.371534852169781</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.151497333005483</v>
@@ -27213,7 +26985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.367491444922131</v>
+        <v>1.356850143291948</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.148721363381719</v>
@@ -27302,7 +27074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.363184092546285</v>
+        <v>1.354152217423599</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.126939681205553</v>
@@ -27391,7 +27163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.364344380450073</v>
+        <v>1.3525670190866</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.163471443119391</v>
@@ -27480,7 +27252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.360060138402672</v>
+        <v>1.344880136583749</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.174497268415324</v>
@@ -27569,7 +27341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.340678460079717</v>
+        <v>1.322197806140017</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.078189762744024</v>
@@ -27658,7 +27430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.339100995461206</v>
+        <v>1.317928790211106</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.976336738244861</v>
@@ -27747,7 +27519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.375322220240846</v>
+        <v>1.349578540489735</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.997250719333337</v>
@@ -27836,7 +27608,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.380142389219469</v>
+        <v>1.345174431467306</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.932007657114705</v>
@@ -27925,7 +27697,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.383994627182514</v>
+        <v>1.347697351316868</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.912815125901019</v>
@@ -28014,7 +27786,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.362136384635727</v>
+        <v>1.328172077756441</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.927097181994442</v>
@@ -28103,7 +27875,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.327847117598533</v>
+        <v>1.298778455742519</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.879276412243628</v>
@@ -28192,7 +27964,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.318505940247789</v>
+        <v>1.290096697038677</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.90507276442868</v>
@@ -28281,7 +28053,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.296458983480641</v>
+        <v>1.275202712826077</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.921566443696676</v>
@@ -28370,7 +28142,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.314720994373157</v>
+        <v>1.288144571547073</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.903363251128767</v>
@@ -28459,7 +28231,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.31801561790888</v>
+        <v>1.293508326158677</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.003038810042541</v>
@@ -28548,7 +28320,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.321737767265624</v>
+        <v>1.293936728715576</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.884922832835156</v>
@@ -28637,7 +28409,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.321881224875491</v>
+        <v>1.288408644703562</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.875710190114451</v>
@@ -28726,7 +28498,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.326232176658877</v>
+        <v>1.292307566043209</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.849908016147513</v>
@@ -28815,7 +28587,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.31978589155885</v>
+        <v>1.284601115042724</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.924589492710556</v>
@@ -28904,7 +28676,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.332575302299165</v>
+        <v>1.296590715112587</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.05319908554079</v>
@@ -28993,7 +28765,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.30912331646371</v>
+        <v>1.280023635060667</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.987074946973381</v>
@@ -29082,7 +28854,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.293579360851866</v>
+        <v>1.266480247762083</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.018883157119865</v>
@@ -29171,7 +28943,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.288581334721105</v>
+        <v>1.25765675671572</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.001324318702225</v>
@@ -29260,7 +29032,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.286068015637185</v>
+        <v>1.255319065708062</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.056312419236741</v>
@@ -29349,7 +29121,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.299146959393136</v>
+        <v>1.263926579632323</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.03102228765542</v>
@@ -29438,7 +29210,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.333531677021297</v>
+        <v>1.29689085141198</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.966605193699898</v>
@@ -29527,7 +29299,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.336433098369872</v>
+        <v>1.300020934088737</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.002416679773537</v>
@@ -29616,7 +29388,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.369069188590669</v>
+        <v>1.321070863514537</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.953304208403171</v>
@@ -29705,7 +29477,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.389852864489493</v>
+        <v>1.34034969723102</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.781985942270562</v>
@@ -29794,7 +29566,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.378529203145982</v>
+        <v>1.325610196393659</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.869990935698205</v>
@@ -29883,7 +29655,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.367558828779901</v>
+        <v>1.31680154746669</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.889050401385372</v>
@@ -29972,7 +29744,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.34427447248454</v>
+        <v>1.297007906281823</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.91233120462089</v>
@@ -30061,7 +29833,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.344073827049228</v>
+        <v>1.2933287854768</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.951328170189736</v>
@@ -30150,7 +29922,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.357821788111701</v>
+        <v>1.307610879147054</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.970278445098401</v>
@@ -30239,7 +30011,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.363457640683462</v>
+        <v>1.315057810076444</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.967136701428063</v>
@@ -30328,7 +30100,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.419590465917857</v>
+        <v>1.360606366029528</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.86786006399433</v>
@@ -30417,7 +30189,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.431032580063832</v>
+        <v>1.365739389328178</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.987785771214389</v>
@@ -30506,7 +30278,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.447204658847775</v>
+        <v>1.387044517230258</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.920395771338716</v>
@@ -30595,7 +30367,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.451301131843753</v>
+        <v>1.391128514598605</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.979649547985152</v>
@@ -30684,7 +30456,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.455786408595098</v>
+        <v>1.398891048544906</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.889798131188167</v>
@@ -30773,7 +30545,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.459109306084537</v>
+        <v>1.400807059652728</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.921220939806718</v>
@@ -30862,7 +30634,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.46110149007942</v>
+        <v>1.405817932113946</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.905024178209922</v>
@@ -30951,7 +30723,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.463985394170253</v>
+        <v>1.407950333520086</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.909269852121618</v>
@@ -31040,7 +30812,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.468738894337666</v>
+        <v>1.410753564787951</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.980520557058873</v>
@@ -31129,7 +30901,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.48499118569776</v>
+        <v>1.413508749930925</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.001138847079247</v>
@@ -31218,7 +30990,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.485712186534703</v>
+        <v>1.424157986925852</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.95065346165514</v>
@@ -31504,7 +31276,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.3109086205387</v>
+        <v>1.269687330417834</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.083840444507338</v>
@@ -31593,7 +31365,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.319311427675479</v>
+        <v>1.275856804198994</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.03379305987959</v>
@@ -31682,7 +31454,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.35590495619256</v>
+        <v>1.310250487365288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.997724357037234</v>
@@ -31771,7 +31543,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.361367321233133</v>
+        <v>1.314956524495101</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.055964275309258</v>
@@ -31860,7 +31632,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.366767354965386</v>
+        <v>1.319124409193295</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.015975566763884</v>
@@ -31949,7 +31721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.414404691651858</v>
+        <v>1.355994890608828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.750733037779458</v>
@@ -32038,7 +31810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.44377868390199</v>
+        <v>1.373450332752027</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.88454435161046</v>
@@ -32127,7 +31899,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445537625580216</v>
+        <v>1.383398261825068</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.383478864271993</v>
@@ -32216,7 +31988,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.444467222865669</v>
+        <v>1.379946379936075</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.391321525897854</v>
@@ -32305,7 +32077,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453666135137159</v>
+        <v>1.386327118984307</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355930286196969</v>
@@ -32394,7 +32166,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.449176238577709</v>
+        <v>1.386064634617047</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.428972128992632</v>
@@ -32483,7 +32255,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.44824299743719</v>
+        <v>1.394302386592094</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.160862333711218</v>
@@ -32572,7 +32344,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.444452225565088</v>
+        <v>1.391409430507309</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.064481668543743</v>
@@ -32661,7 +32433,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.437601628849252</v>
+        <v>1.389555628031994</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.090845435437099</v>
@@ -32750,7 +32522,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.449618456598262</v>
+        <v>1.406164211695439</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.179863075390754</v>
@@ -32839,7 +32611,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.445011193615279</v>
+        <v>1.401468299433025</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.211402461011835</v>
@@ -32928,7 +32700,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.435695514837369</v>
+        <v>1.393229779274295</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.134616599464089</v>
@@ -33017,7 +32789,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.430948248882034</v>
+        <v>1.388258163377727</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.146884139523098</v>
@@ -33106,7 +32878,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.418554637009745</v>
+        <v>1.377706899989053</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.085382620909569</v>
@@ -33195,7 +32967,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.436425167898171</v>
+        <v>1.394922924520999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.084746589775707</v>
@@ -33284,7 +33056,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.434946588151216</v>
+        <v>1.395390964615015</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.055698074693643</v>
@@ -33373,7 +33145,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.435959036190479</v>
+        <v>1.394763781241363</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.033487254730785</v>
@@ -33462,7 +33234,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.450184957111164</v>
+        <v>1.408604640599548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.95658867466235</v>
@@ -33551,7 +33323,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.447273994513123</v>
+        <v>1.408465064030135</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.974062723697242</v>
@@ -33640,7 +33412,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.445584380782856</v>
+        <v>1.40660820583573</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.969799531170839</v>
@@ -33729,7 +33501,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.426214846778674</v>
+        <v>1.389518929527766</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.000095225303488</v>
@@ -33818,7 +33590,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.379675061317769</v>
+        <v>1.353381787687202</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.01362507691608</v>
@@ -33907,7 +33679,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.390351549106067</v>
+        <v>1.372390079395437</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.102536123285697</v>
@@ -33996,7 +33768,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39667571611044</v>
+        <v>1.381641446555647</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.108544955041074</v>
@@ -34085,7 +33857,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.395968181129922</v>
+        <v>1.388038432586004</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.129545629185953</v>
@@ -34174,7 +33946,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.406885324502993</v>
+        <v>1.392504842832024</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.155336107718561</v>
@@ -34263,7 +34035,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.403507689961706</v>
+        <v>1.393534614362339</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.176005699957712</v>
@@ -34352,7 +34124,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.408181749984546</v>
+        <v>1.39874390987257</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.199808607526797</v>
@@ -34441,7 +34213,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.405164719884773</v>
+        <v>1.391758683874381</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.190391561602603</v>
@@ -34530,7 +34302,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.390850108301079</v>
+        <v>1.376379431360389</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.151405696547265</v>
@@ -34619,7 +34391,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.367497128419728</v>
+        <v>1.362576825480012</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.123687988599084</v>
@@ -34708,7 +34480,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.369115924072909</v>
+        <v>1.366563822354163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.127546784250585</v>
@@ -34797,7 +34569,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.369057064190526</v>
+        <v>1.364250276830364</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.168524197774221</v>
@@ -34886,7 +34658,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.366507428365829</v>
+        <v>1.360451583172708</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.173890116012578</v>
@@ -34975,7 +34747,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.35363997252655</v>
+        <v>1.342690700623193</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.089413265991608</v>
@@ -35064,7 +34836,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.354780258503287</v>
+        <v>1.339135261282308</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.018641716049716</v>
@@ -35153,7 +34925,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.388890663031925</v>
+        <v>1.367739601405574</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.022602736455352</v>
@@ -35242,7 +35014,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.400326178630031</v>
+        <v>1.370408269327541</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.973854864533413</v>
@@ -35331,7 +35103,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.394925297160305</v>
+        <v>1.361434130017254</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.95812064401798</v>
@@ -35420,7 +35192,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.372196146571901</v>
+        <v>1.33940608579905</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.980004453227504</v>
@@ -35509,7 +35281,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.343011887084017</v>
+        <v>1.312800838580062</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.920923043468949</v>
@@ -35598,7 +35370,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.334277012681337</v>
+        <v>1.302502168204147</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.939212282160682</v>
@@ -35687,7 +35459,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.309075201156318</v>
+        <v>1.281460563807889</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.957557741082405</v>
@@ -35776,7 +35548,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.32373454713103</v>
+        <v>1.290427479862412</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.929882307338454</v>
@@ -35865,7 +35637,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.324604868974578</v>
+        <v>1.291795029386893</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.026941602261135</v>
@@ -35954,7 +35726,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.330442207176463</v>
+        <v>1.292400046094734</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.920442584418542</v>
@@ -36043,7 +35815,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.324162315370784</v>
+        <v>1.278837283377597</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.920936593921187</v>
@@ -36132,7 +35904,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.328773360898591</v>
+        <v>1.281588178306641</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.886774661155779</v>
@@ -36221,7 +35993,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.322752718461727</v>
+        <v>1.272661201479775</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.953173632567789</v>
@@ -36310,7 +36082,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.33330798237573</v>
+        <v>1.27854254084847</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.088515443304207</v>
@@ -36399,7 +36171,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.305103808942646</v>
+        <v>1.259837359009875</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.990975280321752</v>
@@ -36488,7 +36260,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.295359468910173</v>
+        <v>1.251502533737649</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.06191596174701</v>
@@ -36577,7 +36349,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.284843747461013</v>
+        <v>1.243463446830471</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.026059224575714</v>
@@ -36666,7 +36438,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.287866297784044</v>
+        <v>1.246646117569836</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.05815535819813</v>
@@ -36755,7 +36527,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.297308867788559</v>
+        <v>1.253352918375302</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.032163691365247</v>
@@ -36844,7 +36616,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.333007655558199</v>
+        <v>1.286357371287309</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.967027133346752</v>
@@ -36933,7 +36705,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.335500624154799</v>
+        <v>1.289274900046983</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.015873429316594</v>
@@ -37022,7 +36794,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.3673814061934</v>
+        <v>1.308076145106714</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.975979860266997</v>
@@ -37111,7 +36883,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.383654640744029</v>
+        <v>1.324222473931296</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.798855976660469</v>
@@ -37200,7 +36972,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.375065999118573</v>
+        <v>1.312793784038668</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.891943249231632</v>
@@ -37289,7 +37061,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.365647911775091</v>
+        <v>1.307962556493469</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.912588683359077</v>
@@ -37378,7 +37150,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.345053812981942</v>
+        <v>1.292876029436709</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.947724551335516</v>
@@ -37467,7 +37239,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.346628762782512</v>
+        <v>1.293882753879527</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.007947592887246</v>
@@ -37556,7 +37328,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.35880245116076</v>
+        <v>1.30736525775492</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.988204177690957</v>
@@ -37645,7 +37417,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.360270406836792</v>
+        <v>1.312658495907119</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.970991305717381</v>
@@ -37734,7 +37506,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.415197262108866</v>
+        <v>1.359876371796301</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.887202660232738</v>
@@ -37823,7 +37595,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.430291714915528</v>
+        <v>1.369746557664504</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.022473084293859</v>
@@ -37912,7 +37684,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.452013765402296</v>
+        <v>1.386843408214658</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.941872596972408</v>
@@ -38001,7 +37773,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.44836769748646</v>
+        <v>1.385844792852721</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.990001199847942</v>
@@ -38090,7 +37862,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.452608729945994</v>
+        <v>1.392590181026241</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.910471740258313</v>
@@ -38179,7 +37951,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.453283225697015</v>
+        <v>1.395378388550834</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.937454317563161</v>
@@ -38268,7 +38040,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.455884649615799</v>
+        <v>1.396490276643644</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.937706966816694</v>
@@ -38357,7 +38129,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.45793667325655</v>
+        <v>1.402385456983113</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.931070980700542</v>
@@ -38446,7 +38218,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.469146832017639</v>
+        <v>1.411138171573441</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.001607884613059</v>
@@ -38535,7 +38307,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.487009658590788</v>
+        <v>1.41565627370936</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.000114865239456</v>
@@ -38624,7 +38396,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.487656498607132</v>
+        <v>1.427358179433805</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.94925021811465</v>
@@ -38910,7 +38682,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.234370161706833</v>
+        <v>1.204514345362654</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.943639158241125</v>
@@ -38999,7 +38771,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.250784916049702</v>
+        <v>1.22008294871425</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.914647539253334</v>
@@ -39088,7 +38860,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.28365446366429</v>
+        <v>1.251844539958965</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.867553417361428</v>
@@ -39177,7 +38949,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.302417500079249</v>
+        <v>1.272671821653631</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.919168056885175</v>
@@ -39266,7 +39038,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.307974977829377</v>
+        <v>1.276815912822628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.88641090943087</v>
@@ -39355,7 +39127,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355878995551826</v>
+        <v>1.312362847943678</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.654428486864504</v>
@@ -39444,7 +39216,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.396797070171875</v>
+        <v>1.342913703687828</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.778851314196928</v>
@@ -39533,7 +39305,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.402724603673381</v>
+        <v>1.360101728099163</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.217876676501196</v>
@@ -39622,7 +39394,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.403430713704921</v>
+        <v>1.361090432389606</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.159265871160652</v>
@@ -39711,7 +39483,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.415663829057036</v>
+        <v>1.371445541571376</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.145644398977625</v>
@@ -39800,7 +39572,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.415549509833188</v>
+        <v>1.371875355555904</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.222117682927299</v>
@@ -39889,7 +39661,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.406276052554357</v>
+        <v>1.36535334879616</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.038376931041002</v>
@@ -39978,7 +39750,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.39593989039399</v>
+        <v>1.355894859167704</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.923297053113117</v>
@@ -40067,7 +39839,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.372987705439186</v>
+        <v>1.341067238694425</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.939123113706337</v>
@@ -40156,7 +39928,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.383460497910013</v>
+        <v>1.347885058917193</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.015332157387899</v>
@@ -40245,7 +40017,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.375518619997092</v>
+        <v>1.339619149542258</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.027825172066731</v>
@@ -40334,7 +40106,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.364163991340414</v>
+        <v>1.331060199218278</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.002400658410757</v>
@@ -40423,7 +40195,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.352084942884589</v>
+        <v>1.320898741911182</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.985285381259584</v>
@@ -40512,7 +40284,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.323288293709669</v>
+        <v>1.289307164819812</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.93810701788241</v>
@@ -40601,7 +40373,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.342757601834694</v>
+        <v>1.308070261248818</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.915394684065582</v>
@@ -40690,7 +40462,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.334245138145242</v>
+        <v>1.303002563514124</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.84790833820843</v>
@@ -40779,7 +40551,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.331403482840823</v>
+        <v>1.299760492318933</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.83330757294846</v>
@@ -40868,7 +40640,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.331898324339744</v>
+        <v>1.297109107127282</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.780982152411249</v>
@@ -40957,7 +40729,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.32771056175314</v>
+        <v>1.291958570064965</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.772845489663569</v>
@@ -41046,7 +40818,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.322411867660145</v>
+        <v>1.288051314302809</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.757153177797047</v>
@@ -41135,7 +40907,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.312346736916188</v>
+        <v>1.279799458622113</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.837752135926086</v>
@@ -41224,7 +40996,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.270397422287146</v>
+        <v>1.243514203993144</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.849294931866439</v>
@@ -41313,7 +41085,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.263649136202919</v>
+        <v>1.238339046662128</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.888018068696816</v>
@@ -41402,7 +41174,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.270247683859744</v>
+        <v>1.244564456383902</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.909098552067246</v>
@@ -41491,7 +41263,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.246935649674437</v>
+        <v>1.22790288314761</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.878075614378921</v>
@@ -41580,7 +41352,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.277814998115966</v>
+        <v>1.262673653018847</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.929420348400693</v>
@@ -41669,7 +41441,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.273723941557553</v>
+        <v>1.263283531427977</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.925697157641993</v>
@@ -41758,7 +41530,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.280446155566665</v>
+        <v>1.267365238814067</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.964738196126355</v>
@@ -41847,7 +41619,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.281480581120959</v>
+        <v>1.263501544066428</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.963865379007705</v>
@@ -41936,7 +41708,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.266494581049422</v>
+        <v>1.247080662401223</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.910864602419617</v>
@@ -42025,7 +41797,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.24194242217856</v>
+        <v>1.231964931429182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.900712389592518</v>
@@ -42114,7 +41886,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.242327410992868</v>
+        <v>1.233033140758333</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.896656360381014</v>
@@ -42203,7 +41975,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.252135368918326</v>
+        <v>1.241747471450486</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.940863632031486</v>
@@ -42292,7 +42064,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.2530604003043</v>
+        <v>1.239076930960639</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.959860844130443</v>
@@ -42381,7 +42153,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.248391485007251</v>
+        <v>1.229732280275677</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.913719435537594</v>
@@ -42470,7 +42242,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.242233747995128</v>
+        <v>1.220245406877845</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.818982868209712</v>
@@ -42559,7 +42331,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.263155762627825</v>
+        <v>1.238983551553253</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.763367759289825</v>
@@ -42648,7 +42420,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.284631254994208</v>
+        <v>1.259424421023578</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.756144550506645</v>
@@ -42737,7 +42509,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.286668473577376</v>
+        <v>1.259321413981568</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.762436535200258</v>
@@ -42826,7 +42598,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.273947213376079</v>
+        <v>1.248064619189333</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.794549658157841</v>
@@ -42915,7 +42687,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.23801806078343</v>
+        <v>1.206402353222328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.764109952685149</v>
@@ -43004,7 +42776,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.225642468558237</v>
+        <v>1.192619633084179</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.768351074443496</v>
@@ -43093,7 +42865,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.210382704614166</v>
+        <v>1.183683292280849</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.802220676598214</v>
@@ -43182,7 +42954,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.228262622539331</v>
+        <v>1.198357341470054</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.774280485125599</v>
@@ -43271,7 +43043,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.224302041146485</v>
+        <v>1.196560104433613</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.846773428915551</v>
@@ -43360,7 +43132,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.230838554883778</v>
+        <v>1.203012724874011</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.749628658333476</v>
@@ -43449,7 +43221,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.229958928303131</v>
+        <v>1.201315326112156</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.738793270356652</v>
@@ -43538,7 +43310,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.226177304824104</v>
+        <v>1.198465692805507</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.6960551187685</v>
@@ -43627,7 +43399,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.215560108637251</v>
+        <v>1.187437718514858</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.726689810234621</v>
@@ -43716,7 +43488,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.213522201917302</v>
+        <v>1.190853980988423</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.805246098031516</v>
@@ -43805,7 +43577,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.197406448610862</v>
+        <v>1.17993985706143</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.787841987362195</v>
@@ -43894,7 +43666,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.185975090558764</v>
+        <v>1.16808404395561</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.823633021011757</v>
@@ -43983,7 +43755,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.170902494085911</v>
+        <v>1.154767992486948</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.822058859924101</v>
@@ -44072,7 +43844,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.17395537220222</v>
+        <v>1.159669085480205</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.849842415347654</v>
@@ -44161,7 +43933,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.17463418649489</v>
+        <v>1.161404628498406</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.828100661010601</v>
@@ -44250,7 +44022,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.197350171830784</v>
+        <v>1.186530203341697</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.75628853768896</v>
@@ -44339,7 +44111,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.204714377996401</v>
+        <v>1.195014269295802</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.759322941251348</v>
@@ -44428,7 +44200,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.221619871887585</v>
+        <v>1.203389756796261</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.722308380820187</v>
@@ -44517,7 +44289,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.234369468948308</v>
+        <v>1.216150633890231</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.578047676994681</v>
@@ -44606,7 +44378,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.243991170859035</v>
+        <v>1.217103495655661</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.671010917803976</v>
@@ -44695,7 +44467,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.236061032585945</v>
+        <v>1.209750294546172</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.691463085634181</v>
@@ -44784,7 +44556,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.229702163171306</v>
+        <v>1.198947984519042</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.752812129328775</v>
@@ -44873,7 +44645,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.240387896117633</v>
+        <v>1.204710461775706</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.798974512239814</v>
@@ -44962,7 +44734,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.256167801917323</v>
+        <v>1.221092258829322</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.822866839479786</v>
@@ -45051,7 +44823,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.256585164981453</v>
+        <v>1.221316940351523</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.808942721855289</v>
@@ -45140,7 +44912,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.29863853955762</v>
+        <v>1.25915202709497</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.710955268865573</v>
@@ -45229,7 +45001,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.315184791172987</v>
+        <v>1.268967729656867</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.80591872094311</v>
@@ -45318,7 +45090,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.343968406447696</v>
+        <v>1.293441642498455</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.749075154717991</v>
@@ -45407,7 +45179,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.347886551356592</v>
+        <v>1.294970718026597</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.78635945771428</v>
@@ -45496,7 +45268,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.352109592279441</v>
+        <v>1.298547777853597</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.722571245413353</v>
@@ -45585,7 +45357,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.363638355789988</v>
+        <v>1.30904591049288</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.743181587559879</v>
@@ -45674,7 +45446,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.36929668542822</v>
+        <v>1.314097576425243</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.752952839551844</v>
@@ -45763,7 +45535,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.376546272701284</v>
+        <v>1.323190438962133</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.774377119021622</v>
@@ -45852,7 +45624,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.390719924607891</v>
+        <v>1.33412119160249</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.80982472945419</v>
@@ -45941,7 +45713,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.412270039524495</v>
+        <v>1.339691265750023</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.859740707904296</v>
@@ -46030,7 +45802,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.405333267388974</v>
+        <v>1.343943796116777</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.796177108159759</v>
@@ -46316,7 +46088,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.295839788159075</v>
+        <v>1.263451460445711</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.048926936012327</v>
@@ -46405,7 +46177,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.297426872102683</v>
+        <v>1.262862757537901</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.002651869708365</v>
@@ -46494,7 +46266,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.329916884772383</v>
+        <v>1.294913573249175</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.942146605661965</v>
@@ -46583,7 +46355,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.340387072156883</v>
+        <v>1.302806657940875</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.024215577964969</v>
@@ -46672,7 +46444,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346077297438998</v>
+        <v>1.304513738445926</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.972736885628486</v>
@@ -46761,7 +46533,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.382685507805692</v>
+        <v>1.330500978000582</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.745904148350151</v>
@@ -46850,7 +46622,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.414257211772875</v>
+        <v>1.352122601241969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.890106474874237</v>
@@ -46939,7 +46711,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.4133241927654</v>
+        <v>1.356938996017396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.352932533532999</v>
@@ -47028,7 +46800,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.416369579514168</v>
+        <v>1.355271954449951</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.390404583298647</v>
@@ -47117,7 +46889,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.418067585617016</v>
+        <v>1.35383528741004</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.233153052353708</v>
@@ -47206,7 +46978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.417953800621758</v>
+        <v>1.357056009802992</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.34204032576942</v>
@@ -47295,7 +47067,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.406614767305416</v>
+        <v>1.352726246525012</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.15059749081263</v>
@@ -47384,7 +47156,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.403391165813767</v>
+        <v>1.349285638247256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.02323635567419</v>
@@ -47473,7 +47245,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.393484667337293</v>
+        <v>1.343389622755421</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.084141836584001</v>
@@ -47562,7 +47334,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.406878154132643</v>
+        <v>1.356309489512575</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.128000408862379</v>
@@ -47651,7 +47423,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.39650769700161</v>
+        <v>1.347804317575391</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.208795675715745</v>
@@ -47740,7 +47512,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.402061059117904</v>
+        <v>1.354842220326214</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.146078481847184</v>
@@ -47829,7 +47601,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.394152065658653</v>
+        <v>1.348015713393719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.157034151232136</v>
@@ -47918,7 +47690,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.374292670813101</v>
+        <v>1.329730319712243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.090421210305843</v>
@@ -48007,7 +47779,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.395919763429133</v>
+        <v>1.350264841615656</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.134538990875331</v>
@@ -48096,7 +47868,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.400669863633543</v>
+        <v>1.356009995626732</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.063329373368988</v>
@@ -48185,7 +47957,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.394207907059284</v>
+        <v>1.349217781334631</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.041121494562215</v>
@@ -48274,7 +48046,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.401291281588048</v>
+        <v>1.355071241761541</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.991999134624241</v>
@@ -48363,7 +48135,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.403846431029373</v>
+        <v>1.361687523593522</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.965120118269528</v>
@@ -48452,7 +48224,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.403209551767429</v>
+        <v>1.364913346958359</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.985775271892949</v>
@@ -48541,7 +48313,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.385386618132479</v>
+        <v>1.34806959478042</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.003148452307804</v>
@@ -48630,7 +48402,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.350128530778464</v>
+        <v>1.322164442037677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.018165216723149</v>
@@ -48719,7 +48491,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.368457048110161</v>
+        <v>1.35885145199707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.07298050985489</v>
@@ -48808,7 +48580,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.363799686474725</v>
+        <v>1.355807170338351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.081602312045031</v>
@@ -48897,7 +48669,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.358582701287871</v>
+        <v>1.357808071572469</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.039049113688066</v>
@@ -48986,7 +48758,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.372566563285339</v>
+        <v>1.369830107739847</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.065639187846394</v>
@@ -49075,7 +48847,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.3686575959729</v>
+        <v>1.36932776740315</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.098819433617087</v>
@@ -49164,7 +48936,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.369099019659863</v>
+        <v>1.36818210824967</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.034165761565353</v>
@@ -49253,7 +49025,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.363212868242244</v>
+        <v>1.357968755530502</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.047196941521373</v>
@@ -49342,7 +49114,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.347692467422014</v>
+        <v>1.340248200727316</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.095040494998584</v>
@@ -49431,7 +49203,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.328998935409093</v>
+        <v>1.328893637558645</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.105618248952293</v>
@@ -49520,7 +49292,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.332083808055467</v>
+        <v>1.332485619950814</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.104414619386566</v>
@@ -49609,7 +49381,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.332460345919193</v>
+        <v>1.331476625401901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.122441175226254</v>
@@ -49698,7 +49470,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.329597958242229</v>
+        <v>1.326374815123327</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.145339037767791</v>
@@ -49787,7 +49559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.316992573403428</v>
+        <v>1.310580292878903</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.13774552165272</v>
@@ -49876,7 +49648,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.315760893725064</v>
+        <v>1.309157392946968</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.062239089851172</v>
@@ -49965,7 +49737,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.343892573273022</v>
+        <v>1.334269544709501</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.980299909478978</v>
@@ -50054,7 +49826,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.343172937365763</v>
+        <v>1.313875200298665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.825479006038153</v>
@@ -50143,7 +49915,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.34820494609768</v>
+        <v>1.317597347025462</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.927891928949459</v>
@@ -50232,7 +50004,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.335162790018059</v>
+        <v>1.302946847396231</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.936163519191809</v>
@@ -50321,7 +50093,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.301466852738961</v>
+        <v>1.265899677445637</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.919208291195343</v>
@@ -50410,7 +50182,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.294665187155709</v>
+        <v>1.255773009264619</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.94452604815546</v>
@@ -50499,7 +50271,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.275814925978043</v>
+        <v>1.245597243185896</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.931029973364094</v>
@@ -50588,7 +50360,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.296852648958981</v>
+        <v>1.260871176650182</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.91007065966804</v>
@@ -50677,7 +50449,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.294516687826639</v>
+        <v>1.261503203257132</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.020916418075964</v>
@@ -50766,7 +50538,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.298859258184283</v>
+        <v>1.263579812888175</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.890069929087374</v>
@@ -50855,7 +50627,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.300469464859924</v>
+        <v>1.260754316036367</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.879104732737149</v>
@@ -50944,7 +50716,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.307905384791692</v>
+        <v>1.265930743473916</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.884911018990827</v>
@@ -51033,7 +50805,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.303404893558181</v>
+        <v>1.258501703223897</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.961160966647754</v>
@@ -51122,7 +50894,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.319706067330012</v>
+        <v>1.27249501731349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.048581235703058</v>
@@ -51211,7 +50983,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.299127798094408</v>
+        <v>1.256196199508509</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.995936145292705</v>
@@ -51300,7 +51072,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.289571825702039</v>
+        <v>1.24800697716989</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.054913237356517</v>
@@ -51389,7 +51161,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.275980388782343</v>
+        <v>1.239516117870832</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.026753019108988</v>
@@ -51478,7 +51250,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.277070300259094</v>
+        <v>1.239770536232445</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.034778706714313</v>
@@ -51567,7 +51339,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.287091149844581</v>
+        <v>1.249235135575538</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.023847544171008</v>
@@ -51656,7 +51428,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.317861278200722</v>
+        <v>1.279466238008259</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.925485299452977</v>
@@ -51745,7 +51517,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.318484038910934</v>
+        <v>1.282228094926081</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.974108119127751</v>
@@ -51834,7 +51606,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.354494092755148</v>
+        <v>1.303695740078881</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.915121086402203</v>
@@ -51923,7 +51695,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.372116640415047</v>
+        <v>1.321564063259965</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.7671520232396</v>
@@ -52012,7 +51784,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.362106261459355</v>
+        <v>1.308207802213173</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.872264266725035</v>
@@ -52101,7 +51873,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.354675699230326</v>
+        <v>1.298704710029882</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.870328056434047</v>
@@ -52190,7 +51962,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.330148038269099</v>
+        <v>1.277197472721278</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.922453977200359</v>
@@ -52279,7 +52051,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.329339753260128</v>
+        <v>1.277586017479406</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.967818677526172</v>
@@ -52368,7 +52140,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.342423540888726</v>
+        <v>1.293587912190112</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.95654278206706</v>
@@ -52457,7 +52229,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.34144679229412</v>
+        <v>1.295246261991565</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.938320344056379</v>
@@ -52546,7 +52318,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.393434566482775</v>
+        <v>1.339877811748476</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.852454899882772</v>
@@ -52635,7 +52407,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.407677761865842</v>
+        <v>1.350907490579232</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.983002479260073</v>
@@ -52724,7 +52496,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.431559800447042</v>
+        <v>1.37302061099188</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.916114102783292</v>
@@ -52813,7 +52585,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.433393729163175</v>
+        <v>1.376407709512651</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.974816789688452</v>
@@ -52902,7 +52674,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.43487091189392</v>
+        <v>1.381045999407927</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.902208769421171</v>
@@ -52991,7 +52763,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.43668400115857</v>
+        <v>1.387429718971333</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.922210754030322</v>
@@ -53080,7 +52852,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.435376900839656</v>
+        <v>1.389194728892968</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.937283045939315</v>
@@ -53169,7 +52941,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.434554561173246</v>
+        <v>1.388503970026986</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.928637149848148</v>
@@ -53258,7 +53030,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.440575761292379</v>
+        <v>1.392710771685961</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.978614541502435</v>
@@ -53347,7 +53119,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.455994598825113</v>
+        <v>1.397750913934473</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.997669566917521</v>
@@ -53436,7 +53208,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.451132691212248</v>
+        <v>1.408311053153971</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.944814004446718</v>
